--- a/2.checkUnity/Cookie仕様書.xlsx
+++ b/2.checkUnity/Cookie仕様書.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\github\teacherRepository\0_mainLesson\2022_GameEngine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\github\GameEngine2\2.checkUnity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05818288-445F-4BA1-A7FE-29CBD9378DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6482B2-AC16-445D-9DD4-22F448338D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="120" windowWidth="21036" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cookie1" sheetId="1" r:id="rId1"/>
-    <sheet name="Cookie2" sheetId="2" r:id="rId2"/>
-    <sheet name="Cookie3" sheetId="3" r:id="rId3"/>
-    <sheet name="Cookie4" sheetId="5" r:id="rId4"/>
+    <sheet name="1.PushCookie" sheetId="1" r:id="rId1"/>
+    <sheet name="2.RollingCookie" sheetId="2" r:id="rId2"/>
+    <sheet name="3.BattleCookie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="174">
   <si>
     <t>コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -59,22 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クッキークリッカーをパクるうえで、最初の一歩となる機能の実装。</t>
-    <rPh sb="17" eb="19">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イッポ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面イメージ</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -89,56 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>teams&gt;ゲームエンジン1&gt;素材&gt;Cookie</t>
-    <rPh sb="15" eb="17">
-      <t>ソザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能仕様</t>
-    <rPh sb="0" eb="4">
-      <t>キノウシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・画面中央で大きなクッキーがゆっくり回っている</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面のどこをクリックしてもよい</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クリックすると画面上部から小さなクッキーが降ってくる</t>
-    <rPh sb="8" eb="12">
-      <t>ガメンジョウブ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・押せば押すほどクッキーは沢山降ってくる</t>
     <rPh sb="1" eb="2">
       <t>オ</t>
@@ -155,13 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・アスペクト比は16:9</t>
-    <rPh sb="6" eb="7">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・降ってくるクッキーは大きいのと小さいのがある</t>
     <rPh sb="1" eb="2">
       <t>フ</t>
@@ -198,13 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>奥：</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最大:</t>
     <rPh sb="0" eb="2">
       <t>サイダイ</t>
@@ -1320,237 +1239,571 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クッキークリッカーのパクリにランゲームと格ゲーもどきが付いている。</t>
+    <t>クッキークリッカーをパクるが、完コピは大変なので適当に改変する。</t>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gitHubリポジトリ内</t>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大前提</t>
+    <rPh sb="0" eb="3">
+      <t>ダイゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書とはプランナーから一方的に出されるようなものではありません。</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>イッポウテキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナーから出された初期仕様を元に、</t>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足りないところを追加し、分かりにくいところを書き直し、何度も追加修正を行うものです。</t>
+    <rPh sb="30" eb="34">
+      <t>ツイカシュウセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、組んだ相手によって正解が変わってしまいます。</t>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回のプランナーは教員ですが、ただ課題を受け取ったように使うのではなく、</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カダイ</t>
+    </rPh>
     <rPh sb="20" eb="21">
-      <t>カク</t>
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分からない部分は質問し、修正を要求し、提案と話し合いを行ってください。</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
     </rPh>
     <rPh sb="27" eb="28">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クリックシーンをもう少しまともにする。</t>
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その努力をしないものは例え新卒入社できても使用期間内で契約を切られるでしょう。</t>
+    <rPh sb="2" eb="4">
+      <t>ドリョク</t>
+    </rPh>
     <rPh sb="11" eb="12">
-      <t>スコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クッキークリッカーで言うところのクッキーババア</t>
-    <rPh sb="10" eb="11">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.左のように背景にTrrainで作った背景を置く。</t>
-    <rPh sb="2" eb="3">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シンソツニュウシャ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>シヨウキカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（一般的な会社では殆どあり得ない事ですが、ゲーム会社では普通に起こります）</t>
+    <rPh sb="1" eb="4">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホトン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アスペクト比</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・完成画面イメージ</t>
+    <rPh sb="1" eb="3">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Handボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Grandmaボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Factoryボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右下に下記の順でボタンを配置</t>
+    <rPh sb="0" eb="2">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームアウトライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・中央のクッキーをクリックする事でクッキーが生成される</t>
+    <rPh sb="1" eb="3">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・生成されたクッキーは上から降ってくる</t>
+    <rPh sb="1" eb="3">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・中央上に現在の総クッキー数が表示される</t>
+    <rPh sb="1" eb="4">
+      <t>チュウオウウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・左下に現在のクッキーの秒間生産速度が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>セイサンソクド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・右下にアチーブメント召喚ボタンが配置されている</t>
+    <rPh sb="1" eb="3">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・召喚されたアチーブメントは中央左から配置されていく</t>
+    <rPh sb="1" eb="3">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
       <t>ヒダリ</t>
     </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アチーブメントは一定時間ごとに決められたクッキーを生産する</t>
+    <rPh sb="9" eb="13">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アチーブメントの召喚には決められたコスト(クッキー)を支払う</t>
+    <rPh sb="9" eb="11">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①Windowサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンの左端にアチーブメント画像を添える</t>
+    <rPh sb="4" eb="6">
+      <t>ヒダリハシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンの色は自由。</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③総クッキー数の表示</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央上</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数はとにかく沢山表示できるように</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
     <rPh sb="7" eb="9">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントサイズは32以上</t>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④秒間クッキー数の表示</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントサイズは24以上</t>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤召喚済みアチーブメント表示</t>
+    <rPh sb="1" eb="3">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左端に寄せる形で表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリハシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多少重なっても良い</t>
+    <rPh sb="0" eb="3">
+      <t>タショウカサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすると１つクッキーを生産するボタン</t>
+    <rPh sb="14" eb="16">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥クッキーボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dモデルの上に透明なボタンを配置することで実装</t>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インゲーム中は常にゆっくりと回転している</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押された瞬間は一瞬縮んで元に戻る。</t>
+    <rPh sb="4" eb="5">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.RunとBattleをクリアすると「Grama」ボタンが開放される</t>
-    <rPh sb="30" eb="32">
-      <t>カイホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.タップすると80コストを支払い、グランマが背景に召喚される</t>
-    <rPh sb="14" eb="16">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2D画像でも３Dモデルでも自由</t>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コストを支払えば何度でも召喚できる</t>
-    <rPh sb="4" eb="6">
-      <t>シハラ</t>
-    </rPh>
     <rPh sb="8" eb="10">
-      <t>ナンド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.グランマ一体につき、1秒に一個クッキーが作られる。</t>
-    <rPh sb="6" eb="8">
-      <t>イッタイ</t>
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッシュン</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イッコ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーン遷移仕様</t>
-    <rPh sb="3" eb="5">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランゲームと格ゲーは１度だけ行くようにする。</t>
-    <rPh sb="6" eb="7">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>32クリック(一度だけ遷移)</t>
-    <rPh sb="7" eb="9">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>64クリック(一度だけ遷移)</t>
-    <rPh sb="7" eb="9">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サウンド仕様</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クッキーをクリックした際にそれっぽい音がする</t>
-    <rPh sb="12" eb="13">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・グランマを召喚した際にそれっぽい音がする</t>
-    <rPh sb="6" eb="8">
-      <t>ショウカン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・グランマがクッキーを作る際にそれっぽい音がする</t>
-    <rPh sb="11" eb="12">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これらの音を追加した際にあまりにうるさくなるようなら、適時削除してください。</t>
-    <rPh sb="4" eb="5">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テキジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SE:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BGM:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・それぞれのシーンでそれっぽい曲が流れる</t>
-    <rPh sb="15" eb="16">
-      <t>キョク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックシーンにアップグレード機能を付ける</t>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
     </rPh>
     <rPh sb="18" eb="19">
-      <t>ツ</t>
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1559,7 +1812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,8 +1896,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1687,12 +1957,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1707,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1730,7 +1994,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1755,13 +2023,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>518621</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>167907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1805,13 +2073,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>662511</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>133668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476583</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>76128</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1865,7 +2133,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -1922,13 +2190,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1985,13 +2253,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2048,13 +2316,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2111,13 +2379,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2174,7 +2442,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -2231,13 +2499,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>667512</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>193921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2291,7 +2559,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2300630" cy="328423"/>
@@ -2338,6 +2606,721 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>画面のどこを押しても降ってくる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9398B157-37F3-4D39-A4C7-6C7C4CF58399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="5562600"/>
+          <a:ext cx="4648200" cy="2617793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>103193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642A4E8E-B661-419B-84D3-51D5A3098357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="8915400"/>
+          <a:ext cx="4648200" cy="2617793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE07F222-FB37-456A-A380-454A2BFE655E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="8846820"/>
+          <a:ext cx="4914900" cy="2758440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246BE855-7D08-442A-80A5-8B28AA7F8111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="335280" y="8755380"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0491009B-0A4A-4A73-88A6-881002E20489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="10774680"/>
+          <a:ext cx="922020" cy="746760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419C28BE-F54C-479E-9ED5-EDAD43CE7CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="10507980"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74933582-54A2-4B29-A85B-976A65923584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2522220" y="8976360"/>
+          <a:ext cx="922020" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830BE2A2-7E8F-46A6-A65C-C06D2A0F1026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="8747760"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3F222F-0E65-48E7-BC88-4CAD97BA36D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1051560" y="10949940"/>
+          <a:ext cx="640080" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E4E27D-2884-40C9-ACBB-CE7FC14BFF35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1592580" y="10995660"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFF40CF-4CEF-4246-95EB-84080BF7D432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="746760" y="9646920"/>
+          <a:ext cx="1508760" cy="1188720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D14FE4-976D-4BDE-80CC-8B939D49AFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="9387840"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5905,2189 +6888,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA38595-806D-411E-B2DA-7878839946A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781050" y="25898474"/>
-          <a:ext cx="1371600" cy="542926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>クリック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502CA574-9472-4DCC-9C5F-E113D5F3127A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2752725" y="25212675"/>
-          <a:ext cx="1647825" cy="381001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ランゲーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7406A453-4120-4494-A516-BE796A4336EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2733675" y="26717625"/>
-          <a:ext cx="1885950" cy="381001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ゲームオーバー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A555919D-A050-4608-9397-E2AB332EE965}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="0"/>
-          <a:endCxn id="27" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1466850" y="25403176"/>
-          <a:ext cx="1285875" cy="495298"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C3CF6C-EEE7-4330-A332-425D3692B714}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1323975" y="25241250"/>
-          <a:ext cx="1419226" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F87D54-5D0C-49C7-881B-BDB640CA4886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="25631775"/>
-          <a:ext cx="0" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C453C276-B836-481E-B821-66DEB17BE8E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="1"/>
-          <a:endCxn id="26" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1466850" y="26441400"/>
-          <a:ext cx="1266825" cy="466726"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AC3CF0-F81D-4E53-B38B-00B705D20E1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="25288875"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06591EC-6CD4-438E-885A-7C7A2A866767}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2114550" y="25555575"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A5FEDB-A7FD-49A9-90B9-11512323778E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="26641425"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>④</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901986DC-008E-4467-AED9-FEFBE709A567}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371850" y="25984200"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893C9B07-C898-48C6-8993-4149FDBA7A13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="25241250"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB674559-5EA3-45FC-82E2-A41C59596F06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="27822525"/>
-          <a:ext cx="1647825" cy="381001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>格ゲー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AC5208-86CB-46E9-B71A-319950A0002D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3457575" y="27079575"/>
-          <a:ext cx="71438" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8262CA9C-9903-4455-A69D-AC71A1BD5AC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524250" y="27355800"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65E77A3-EDCC-4E57-87BF-FDB91B424DA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="38" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="26469975"/>
-          <a:ext cx="1362075" cy="1543051"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA2BD73-4795-447A-A9AA-E152C86C4F8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1190625" y="26450925"/>
-          <a:ext cx="1409700" cy="1600201"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="テキスト ボックス 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6679752F-8211-4C53-B39D-B3F80E1C3978}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1504950" y="27098625"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600923</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114781</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BB86F3-7998-8C93-2FDE-B4CBCCD1C0C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695325" y="4762500"/>
-          <a:ext cx="6077798" cy="3448531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="テキスト ボックス 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59785C5A-0EB9-45FA-A548-65CDA5BD82D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="790575" y="4838700"/>
-          <a:ext cx="327654" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>80</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>65804</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>216143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B61526-6ED1-7FD1-F2AA-F4EF17C65762}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2809004" y="5543550"/>
-          <a:ext cx="1762995" cy="1816343"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581873</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>219556</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668A8A24-A3D7-4A57-A7FE-B87E86F30071}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="8201025"/>
-          <a:ext cx="6077798" cy="3448531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="テキスト ボックス 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E8FFE5-FCED-42B1-944A-99002121F97F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="8267700"/>
-          <a:ext cx="327654" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>80</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>467595</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>111368</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D13287-AFA5-4EF9-9A95-B4C3621777D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2819400" y="9010650"/>
-          <a:ext cx="1762995" cy="1816343"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="楕円 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4B0363-7F77-4916-B5F8-6060B02F68A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5133975" y="10706100"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Grama</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600923</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76681</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E3C781-1D93-49A1-8FD3-CD189A45E8EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695325" y="11630025"/>
-          <a:ext cx="6077798" cy="3448531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0F33F0-D8FA-47E2-A770-41ADB3B23CB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="828675" y="11763375"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>0</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>410445</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>187568</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F42DFA8-95F7-4AF8-A262-E4CF4E78C60B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2762250" y="12658725"/>
-          <a:ext cx="1762995" cy="1816343"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="楕円 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D99764-BA1B-4AB1-8FFA-DB901A6C5336}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5191125" y="14230350"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Grama</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AD89C1-A5F0-A5A3-68E8-921660F42398}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="14230351"/>
-          <a:ext cx="1320800" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619973</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>181456</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CD76E5-4FA2-4543-8419-48C9AA6EBA7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714375" y="15068550"/>
-          <a:ext cx="6077798" cy="3448531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>496170</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>139943</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71B6943-3A86-4EE1-96F6-35D9D04F1E23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2847975" y="15944850"/>
-          <a:ext cx="1762995" cy="1816343"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FC608D-5E84-486D-B0E1-5D18D98885AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="866775" y="15182850"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>0</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="楕円 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18252B1-09F1-4EFF-99A2-65D13A82F816}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="17392650"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Grama</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425ADF38-F0FD-4D87-B458-FDE9B5E9DDE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5762625" y="17573626"/>
-          <a:ext cx="1320800" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>97398</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>667684</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>24643</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="図 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D7BC4F-D056-F08D-85B3-2C8DA9061B99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4897998" y="16535400"/>
-          <a:ext cx="570286" cy="634243"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>230199</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390523</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>121866</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224870B6-8A21-48AA-BB94-F2F0037669E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1601799" y="16802100"/>
-          <a:ext cx="846124" cy="941016"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409255</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>226999</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>74241</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="図 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37096E0C-62CB-4401-A45A-773DB2EF029C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5895655" y="16421100"/>
-          <a:ext cx="503544" cy="560016"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>211149</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371473</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>131391</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="図 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D9BC7B-2860-48B8-98DA-3654E3410AEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1582749" y="13477875"/>
-          <a:ext cx="846124" cy="941016"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8354,10 +7154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G45"/>
+  <dimension ref="B2:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8380,183 +7180,384 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="2" customFormat="1">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
+    <row r="6" spans="2:3" s="20" customFormat="1">
+      <c r="B6" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" s="2" customFormat="1">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" s="2" customFormat="1">
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="2" customFormat="1">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="2" customFormat="1">
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="24" customFormat="1"/>
+    <row r="24" spans="2:10" s="24" customFormat="1">
+      <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" s="24" customFormat="1">
+      <c r="J25" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="24" customFormat="1">
+      <c r="J26" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="24" customFormat="1">
+      <c r="J27" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="24" customFormat="1">
+      <c r="J28" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="24" customFormat="1">
+      <c r="J29" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="24" customFormat="1">
+      <c r="J30" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="24" customFormat="1">
+      <c r="J31" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="24" customFormat="1">
+      <c r="J32" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="24" customFormat="1"/>
+    <row r="34" spans="2:11" s="24" customFormat="1"/>
+    <row r="35" spans="2:11" s="24" customFormat="1"/>
+    <row r="36" spans="2:11" s="24" customFormat="1"/>
+    <row r="37" spans="2:11" s="24" customFormat="1"/>
+    <row r="38" spans="2:11" s="4" customFormat="1">
+      <c r="B38" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="J40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="K41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="K42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="K43" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="J45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="K46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="K47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="K48" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="K49" s="23"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="J50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="K51" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="K52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>720</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="K55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="K56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="K57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="K58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="C59" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="C60" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="C61" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="C62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" s="5" customFormat="1">
+      <c r="B65" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" s="8" customFormat="1">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="2:13" s="8" customFormat="1">
+      <c r="B67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67"/>
+    </row>
+    <row r="68" spans="2:13" s="8" customFormat="1">
+      <c r="B68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="L69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="4" customFormat="1">
-      <c r="B13" s="4" t="s">
+    <row r="70" spans="2:13">
+      <c r="B70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
+    <row r="71" spans="2:13">
+      <c r="B71" s="7"/>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="7"/>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="7"/>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="7"/>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" s="5" customFormat="1">
-      <c r="B28" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" s="8" customFormat="1">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:7" s="8" customFormat="1">
-      <c r="B30" s="7" t="s">
+    <row r="75" spans="2:13">
+      <c r="B75" s="7"/>
+      <c r="C75" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="8" customFormat="1">
-      <c r="B31" s="7" t="s">
+    <row r="76" spans="2:13">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="2:13" s="9" customFormat="1">
+      <c r="B77" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="7" t="s">
+    <row r="78" spans="2:13">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="7"/>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="7"/>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="7"/>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="7"/>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="7"/>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="2:3" s="9" customFormat="1">
-      <c r="B40" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" s="2" customFormat="1">
-      <c r="B45" s="2" t="s">
-        <v>6</v>
+    <row r="82" spans="2:2" s="2" customFormat="1">
+      <c r="B82" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8587,7 +7588,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="11" customFormat="1">
@@ -8600,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8608,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8616,12 +7617,12 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="12" customFormat="1">
       <c r="B10" s="12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8629,12 +7630,12 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8642,12 +7643,12 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8655,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8663,7 +7664,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D20" s="10"/>
     </row>
@@ -8672,12 +7673,12 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D23" s="10"/>
     </row>
@@ -8686,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8694,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8702,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8710,12 +7711,12 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="D28" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8723,12 +7724,12 @@
         <v>1</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8736,15 +7737,15 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8752,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8760,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8768,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8776,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8784,13 +7785,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1">
       <c r="A41"/>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8798,12 +7799,12 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="D44" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8811,21 +7812,21 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="C47" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" s="10"/>
     </row>
     <row r="58" spans="1:10">
       <c r="C58" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -8833,15 +7834,15 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="D60" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -8849,12 +7850,12 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="C63" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D63" s="10"/>
     </row>
@@ -8863,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8871,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -8879,24 +7880,24 @@
         <v>1</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="C86" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:13">
       <c r="C87" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H87" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I87" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -8904,13 +7905,13 @@
         <v>1</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M89" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -8942,19 +7943,19 @@
     </row>
     <row r="99" spans="1:8">
       <c r="C99" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:8">
       <c r="C100" s="19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8962,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8973,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8981,7 +7982,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="C105" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D105" s="10"/>
     </row>
@@ -8990,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="14" customFormat="1"/>
@@ -8999,14 +8000,14 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="14" customFormat="1"/>
     <row r="110" spans="1:8" s="4" customFormat="1">
       <c r="A110"/>
       <c r="C110" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -9017,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -9028,44 +8029,44 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="2" customFormat="1">
       <c r="B115" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="H117" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I117" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="H118" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I118" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="H119" s="15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I119" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="H120" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I120" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -9089,8 +8090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F474978-6D0D-461E-B923-6BDFC0159F20}">
   <dimension ref="A2:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9102,7 +8103,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:2" s="11" customFormat="1">
@@ -9112,95 +8113,95 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:2" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:2" s="2" customFormat="1">
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="D20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1">
       <c r="A29"/>
       <c r="C29" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9212,127 +8213,127 @@
     <row r="59" spans="1:3" s="4" customFormat="1">
       <c r="A59"/>
       <c r="C59" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="C63" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="C64" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="10:10">
       <c r="J68" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="10:11">
       <c r="J81" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="10:11">
       <c r="J93" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="10:11">
       <c r="K94" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="10:11">
       <c r="K95" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="10:11">
       <c r="J96" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="K97" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="K98" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="J99" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="J101" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="J103" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="2:11" s="2" customFormat="1">
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="H107" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I107" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="H108" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="H109" s="15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I109" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="H110" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I110" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="H111" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I111" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -9340,220 +8341,6 @@
     </row>
     <row r="113" spans="8:8">
       <c r="H113" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C31081-EF01-4714-9C02-911D8EEC3A68}">
-  <dimension ref="A2:M104"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="2" spans="2:4" s="1" customFormat="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="11" customFormat="1">
-      <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" s="12" customFormat="1">
-      <c r="B9" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" s="2" customFormat="1">
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1">
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1">
-      <c r="A20"/>
-      <c r="C20" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="D23" s="18"/>
-      <c r="L23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="12:12">
-      <c r="L38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="12:13">
-      <c r="L53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="12:13">
-      <c r="M54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="12:13">
-      <c r="M55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="L67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="4" customFormat="1">
-      <c r="A80"/>
-      <c r="C80" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="C82" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="4" customFormat="1">
-      <c r="A84"/>
-      <c r="C84" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="C86" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="C87" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="C88" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="C89" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="C90" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="C91" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="C93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="2" customFormat="1">
-      <c r="B96" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="8:9">
-      <c r="H98" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I98" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="8:9">
-      <c r="H99" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="8:9">
-      <c r="H100" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I100" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" spans="8:9">
-      <c r="H101" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I101" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="8:9">
-      <c r="H102" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="8:9">
-      <c r="H103" s="15"/>
-    </row>
-    <row r="104" spans="8:9">
-      <c r="H104" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/2.checkUnity/Cookie仕様書.xlsx
+++ b/2.checkUnity/Cookie仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\github\GameEngine2\2.checkUnity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6482B2-AC16-445D-9DD4-22F448338D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11065F-11AD-4E80-8CA3-53C3D56703DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="120" windowWidth="21036" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.PushCookie" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="210">
   <si>
     <t>コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -72,149 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・押せば押すほどクッキーは沢山降ってくる</t>
-    <rPh sb="1" eb="2">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タクサン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・降ってくるクッキーは大きいのと小さいのがある</t>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大きい小さいというよりは、手前にあるのと遠くにあるのがある。</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テマエ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手前：</t>
-    <rPh sb="0" eb="2">
-      <t>テマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最大:</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・降ってくるクッキーは回転していてもそうでなくてもよい</t>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・降り方にはランダム性を持たせてほしい</t>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前後左右良い感じにランダムで降らせてほしい</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンゴサユウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックした際の中央のクッキーの挙動</t>
-    <rPh sb="6" eb="7">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キョドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クリックした際に素早く小さくなり</t>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スバヤ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・小さくなるときよりはゆっくりと大きくなり元に戻る</t>
-    <rPh sb="1" eb="2">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>意図：</t>
     <rPh sb="0" eb="2">
       <t>イト</t>
@@ -222,42 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリックしていることを視覚的にも分かりやすくするため。</t>
-    <rPh sb="11" eb="14">
-      <t>シカクテキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIによくあるボタンの挙動を大げさにした感じ。</t>
-    <rPh sb="11" eb="13">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パクリ元のクッキークリッカーの挙動が理想。</t>
-    <rPh sb="3" eb="4">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>リソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリックするばかりのゲームのため、クリックするだけでもある程度の楽しさを生み出したい。</t>
     <rPh sb="29" eb="31">
       <t>テイド</t>
@@ -274,13 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリックするたびにクッキーが跳ねているかのような。</t>
-    <rPh sb="14" eb="15">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>楽しさを生み出すインタラクティブを意識して頂きたいです。</t>
     <rPh sb="0" eb="1">
       <t>タノ</t>
@@ -300,42 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注意点</t>
-    <rPh sb="0" eb="2">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・prefabなどで複製してクッキーを作成してはいけない。</t>
-    <rPh sb="10" eb="12">
-      <t>フクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・小さなクッキーは１６個であり、それらを操作して実現してください。</t>
-    <rPh sb="1" eb="2">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クッキークリッカーのパクリを始めたら突然ランゲームが始まる。</t>
     <rPh sb="14" eb="15">
       <t>ハジ</t>
@@ -1805,6 +1583,632 @@
     <rPh sb="18" eb="19">
       <t>モド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック挙動イメージ</t>
+    <rPh sb="4" eb="6">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央のクッキーの挙動</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①中央のクッキー</t>
+    <rPh sb="1" eb="3">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②降ってくるクッキー</t>
+    <rPh sb="1" eb="2">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーをクリックすると、クッキーが生成される。</t>
+    <rPh sb="18" eb="20">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーが映っていない部分をクリックしても生成されない。</t>
+    <rPh sb="5" eb="6">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連打しても生成される。</t>
+    <rPh sb="0" eb="2">
+      <t>レンダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全て中央クッキーより後ろに降ってくる。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠くに降ってくるクッキーと</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やや手前に降ってくるクッキーがある</t>
+    <rPh sb="2" eb="4">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アチーブメントによる生成の際も一定数降ってくる。</t>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央クッキーを押してクッキーが生成された際に降ってくる。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やり方</t>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・二人で一組になる</t>
+    <rPh sb="1" eb="3">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒトクミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・お互いがエンジニア役とプランナー役をする</t>
+    <rPh sb="2" eb="3">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・仕様の曖昧な部分はエンジニアが質問し、プランナーが詳細を確定させる</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アイマイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・場合によっては仕様を削っても良い（エンジニア側の力量不足により実装が出来ない場合など）</t>
+    <rPh sb="1" eb="3">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケズ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>リキリョウブソク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジニアとして質問</t>
+    <rPh sb="8" eb="10">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナーとして修正</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最終的にお互いの仕様書は似て非なるものになるはず</t>
+    <rPh sb="1" eb="4">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・出来上がった仕様書でゲームを作成する</t>
+    <rPh sb="1" eb="4">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・作成途中に期間内で間に合いそうにないと思った仕様はプランナーと交渉して変更or削除を要求する</t>
+    <rPh sb="1" eb="5">
+      <t>サクセイトチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キカンナイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①クリックした際</t>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一気に小さくなる</t>
+    <rPh sb="0" eb="2">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩やかと言っても①と比べてなので、</t>
+    <rPh sb="0" eb="1">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩やかにもとの大きさに戻る。</t>
+    <rPh sb="0" eb="1">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目視で確認できる程度の速度で良い。</t>
+    <rPh sb="0" eb="2">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②クリック後</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちてくるクッキーの挙動</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーが生成された際に</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手前or奥に生成され、落下してくる。</t>
+    <rPh sb="0" eb="2">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手前</t>
+    <rPh sb="0" eb="2">
+      <t>テマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう少し分かりやすく差をつけてもよい。</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アチーブメントで生成されるクッキーと落下クッキーの関係</t>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どちらの降るかは完全なランダムにすること。</t>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アチーブメント挙動</t>
+    <rPh sb="7" eb="9">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①Hand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒間</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②Grandma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コストと秒間は好きに決めて良い</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決められた時間毎にクッキーを生成する。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジカンゴト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アチーブメントはコスト(クッキー)を払うことで召喚。</t>
+    <rPh sb="18" eb="19">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし。</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アチーブメントから生成されるクッキーも落下クッキーに影響を与える。</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、生成されるクッキー全てを落下させるととんでもない数になるので、</t>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒間ｍ以上の時、秒間ｎ降らせる、という形で落下させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（例：秒間80クッキー生成されている際に、秒間1個降らす。など）</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ohara-fic-game.fool.jp/2023GameEngine2/pushCookie/</t>
+  </si>
+  <si>
+    <t>サンプル：</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1914,7 +2318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1957,6 +2361,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1971,7 +2381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1999,6 +2409,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2021,16 +2435,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>518621</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>167907</xdr:rowOff>
+      <xdr:colOff>625301</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>91707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2059,7 +2473,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="563880" y="10568940"/>
+          <a:off x="670560" y="15064740"/>
           <a:ext cx="5319221" cy="3086367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2071,16 +2485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>662511</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>133668</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98631</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476583</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>76128</xdr:rowOff>
+      <xdr:colOff>583263</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>228528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2095,7 +2509,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18939939">
-          <a:off x="3344751" y="3562668"/>
+          <a:off x="3451431" y="21088668"/>
           <a:ext cx="484632" cy="628260"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -2132,9 +2546,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -2150,7 +2564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3596640" y="9913620"/>
+          <a:off x="3703320" y="16695420"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2188,16 +2602,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2212,7 +2626,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="10530840"/>
+          <a:off x="4107180" y="15026640"/>
           <a:ext cx="228600" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2252,15 +2666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2275,7 +2689,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1386840" y="10668000"/>
+          <a:off x="1493520" y="15163800"/>
           <a:ext cx="228600" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2315,15 +2729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2338,7 +2752,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440180" y="11780520"/>
+          <a:off x="1546860" y="16276320"/>
           <a:ext cx="228600" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2378,15 +2792,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2401,8 +2815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4488180" y="12412980"/>
-          <a:ext cx="228600" cy="449580"/>
+          <a:off x="4648200" y="15956280"/>
+          <a:ext cx="228600" cy="1363980"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2441,9 +2855,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -2459,7 +2873,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2186940" y="10492740"/>
+          <a:off x="2293620" y="14988540"/>
           <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2495,38 +2909,144 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>179393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9398B157-37F3-4D39-A4C7-6C7C4CF58399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="5562600"/>
+          <a:ext cx="4648200" cy="2617793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>103193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642A4E8E-B661-419B-84D3-51D5A3098357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="8915400"/>
+          <a:ext cx="4648200" cy="2617793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>667512</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>193921</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矢印: 上 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9276DD9-0AFE-47F3-BB84-C5DD6D0DB74B}"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE07F222-FB37-456A-A380-454A2BFE655E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="18939939">
-          <a:off x="2194560" y="10309861"/>
-          <a:ext cx="484632" cy="628260"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm>
+          <a:off x="563880" y="8846820"/>
+          <a:ext cx="4914900" cy="2758440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2557,232 +3077,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2300630" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD7C873-1EB4-448F-A799-8853C8C0FA02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="13129260"/>
-          <a:ext cx="2300630" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面のどこを押しても降ってくる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>179393</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9398B157-37F3-4D39-A4C7-6C7C4CF58399}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="5562600"/>
-          <a:ext cx="4648200" cy="2617793"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>103193</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642A4E8E-B661-419B-84D3-51D5A3098357}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="8915400"/>
-          <a:ext cx="4648200" cy="2617793"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE07F222-FB37-456A-A380-454A2BFE655E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="563880" y="8846820"/>
-          <a:ext cx="4914900" cy="2758440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -2839,13 +3136,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2905,7 +3202,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -2962,13 +3259,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3028,7 +3325,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -3085,13 +3382,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3151,7 +3448,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -3208,13 +3505,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3274,7 +3571,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -3327,6 +3624,1448 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67563E8D-7F5E-4CB9-AD99-B08A84E29BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="4991100"/>
+          <a:ext cx="1318260" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400" b="1"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052E02F8-4D7C-4CB6-B6FD-A43C52DE9F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4107180" y="4975860"/>
+          <a:ext cx="1379220" cy="1554480"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800" b="1"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A01DE6-81CB-4B72-828D-8706CB66C915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1280160" y="6614160"/>
+          <a:ext cx="899160" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕様書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BDDDAE-C15D-4E91-B5BF-6F5C7E1221AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="6644640"/>
+          <a:ext cx="899160" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕様書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B550ED5-9CA5-4306-B4C3-1A2CFC21A453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2331720" y="5494020"/>
+          <a:ext cx="1798320" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B8DD7A-6530-4B01-A89B-393A1278EDD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2270760" y="6156960"/>
+          <a:ext cx="1889760" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06F39A9-2172-4B52-8649-2580BFCD4073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="2" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2346960" y="5730240"/>
+          <a:ext cx="1760220" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD16DFF3-CD88-4E51-AC3F-5D732E591718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2270760" y="6096000"/>
+          <a:ext cx="2171700" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>218092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C7071E-DBA7-40EE-A087-8B76FBA69B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662940" y="23629620"/>
+          <a:ext cx="4274820" cy="2420272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>138537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A059C275-A013-4BE2-B4C6-7917D3786496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="26083260"/>
+          <a:ext cx="4267200" cy="2401677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CFE214-CF4E-47F4-99A3-A3A166772864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2827020" y="24437340"/>
+          <a:ext cx="388620" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>113798</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>146910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797DA26F-680D-414A-90A0-C92ACF6A68AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="24414480"/>
+          <a:ext cx="357638" cy="421230"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E954B3-24AC-4049-86DD-11F25F88D836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2385060" y="24841200"/>
+          <a:ext cx="434340" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C44EE0-7C3A-4287-8581-548917505EA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2819400" y="24864060"/>
+          <a:ext cx="411480" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6745AC80-1B4A-4075-BA38-3ED07434AD69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2369820" y="24612600"/>
+          <a:ext cx="1089660" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57765</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>176703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56522</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>204216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="矢印: V 字型 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8292B581-6CB4-4D0B-BDF4-9DBF26D1ED2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19122073">
+          <a:off x="2740005" y="26922903"/>
+          <a:ext cx="669317" cy="256113"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42690"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219527</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>188940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204287</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>216453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矢印: V 字型 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AAA9D5-B016-4B4D-B9C7-DAE0DA0D2056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13211784">
+          <a:off x="2231207" y="26935140"/>
+          <a:ext cx="655320" cy="256113"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>84464</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>189019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>92726</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>216532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矢印: V 字型 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D4C627-4348-4410-8DAE-9EF29B8C3449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2396173">
+          <a:off x="2766704" y="27392419"/>
+          <a:ext cx="678822" cy="256113"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>399366</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>23308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16731</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>221428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矢印: V 字型 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38675411-09D5-4A86-B692-4FF3669892F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8058215">
+          <a:off x="2227349" y="27410405"/>
+          <a:ext cx="655320" cy="287925"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4528</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFA9EAA-99BE-49D7-A349-D19EBD2FEA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="29268420"/>
+          <a:ext cx="4713688" cy="2644140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162873B8-36B9-467C-9501-A90B636C50D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="29451300"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AD427D-1A40-47FB-AD76-C74D4FCCA933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4206240" y="30365700"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E0644A-8578-46CD-825F-5D8399286DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4960620" y="32948880"/>
+          <a:ext cx="883920" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>453485</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>3905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CD2D66-30AC-4F8E-8A63-4A5F4778DD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="32994600"/>
+          <a:ext cx="842105" cy="842105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220981</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>29466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7B16D5-BB37-4CFB-92CB-919B54253261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2903221" y="32964120"/>
+          <a:ext cx="815339" cy="898146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3472,8 +5211,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1395693" y="17668316"/>
-          <a:ext cx="2705660" cy="1819506"/>
+          <a:off x="1373281" y="17500227"/>
+          <a:ext cx="2660837" cy="1803819"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7154,10 +8893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M82"/>
+  <dimension ref="B2:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7180,385 +8919,669 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="20" customFormat="1">
-      <c r="B6" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>132</v>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="20" customFormat="1">
+      <c r="B7" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="25" customFormat="1">
+      <c r="B17" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="E31" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="2" customFormat="1">
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="2" customFormat="1">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" s="2" customFormat="1">
+      <c r="B44" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" s="24" customFormat="1"/>
+    <row r="46" spans="2:10" s="24" customFormat="1">
+      <c r="B46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:10" s="24" customFormat="1">
+      <c r="J47" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" s="24" customFormat="1">
+      <c r="J48" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="24" customFormat="1">
+      <c r="J49" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="24" customFormat="1">
+      <c r="J50" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="24" customFormat="1">
+      <c r="J51" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="24" customFormat="1">
+      <c r="J52" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="24" customFormat="1">
+      <c r="J53" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" s="24" customFormat="1">
+      <c r="J54" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="24" customFormat="1"/>
+    <row r="56" spans="2:11" s="24" customFormat="1"/>
+    <row r="57" spans="2:11" s="24" customFormat="1"/>
+    <row r="58" spans="2:11" s="24" customFormat="1"/>
+    <row r="59" spans="2:11" s="24" customFormat="1"/>
+    <row r="60" spans="2:11" s="4" customFormat="1">
+      <c r="B60" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="J62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="K63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="K64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="K65" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="J67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="K68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="K69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="K70" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="K71" s="23"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="J72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="K73" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="K74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="C75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76">
+        <v>720</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="C77" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="K77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="K78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" s="2" customFormat="1">
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
+      <c r="C79" s="1"/>
+      <c r="K79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="C80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="C81" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="C82" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="C83" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="2:10" s="2" customFormat="1">
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="2" customFormat="1">
-      <c r="B22" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="24" customFormat="1"/>
-    <row r="24" spans="2:10" s="24" customFormat="1">
-      <c r="B24" s="1" t="s">
+    <row r="84" spans="2:12">
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="C85" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" s="24" customFormat="1">
-      <c r="J25" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" s="24" customFormat="1">
-      <c r="J26" s="24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" s="24" customFormat="1">
-      <c r="J27" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" s="24" customFormat="1">
-      <c r="J28" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" s="24" customFormat="1">
-      <c r="J29" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" s="24" customFormat="1">
-      <c r="J30" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" s="24" customFormat="1">
-      <c r="J31" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" s="24" customFormat="1">
-      <c r="J32" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="24" customFormat="1"/>
-    <row r="34" spans="2:11" s="24" customFormat="1"/>
-    <row r="35" spans="2:11" s="24" customFormat="1"/>
-    <row r="36" spans="2:11" s="24" customFormat="1"/>
-    <row r="37" spans="2:11" s="24" customFormat="1"/>
-    <row r="38" spans="2:11" s="4" customFormat="1">
-      <c r="B38" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="J40" s="1" t="s">
+    </row>
+    <row r="87" spans="2:12" s="2" customFormat="1">
+      <c r="B87" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="K89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="L90" t="s">
         <v>160</v>
       </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="K41" t="s">
+    </row>
+    <row r="91" spans="2:12">
+      <c r="L91" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
-      <c r="K42" t="s">
+    <row r="92" spans="2:12">
+      <c r="L92" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
-      <c r="K43" s="18" t="s">
+    <row r="94" spans="2:12">
+      <c r="K94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="L95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="L96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="L97" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
-      <c r="J45" s="1" t="s">
+    <row r="98" spans="2:12">
+      <c r="L98" t="s">
         <v>164</v>
       </c>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="K46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="K47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="K48" s="18" t="s">
+    </row>
+    <row r="99" spans="2:12">
+      <c r="L99" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
-      <c r="K49" s="23"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="J50" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="K51" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="K52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="C53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54">
-        <v>720</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="22">
-        <v>0.67291666666666661</v>
-      </c>
-      <c r="K55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="K56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="1" t="s">
+    <row r="101" spans="2:12">
+      <c r="K101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="L102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" s="5" customFormat="1">
+      <c r="B104" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="K57" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="C58" t="s">
-        <v>146</v>
-      </c>
-      <c r="K58" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="C59" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="C60" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="C61" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="C62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="C63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" s="5" customFormat="1">
-      <c r="B65" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" s="8" customFormat="1">
-      <c r="B66" s="7"/>
-    </row>
-    <row r="67" spans="2:13" s="8" customFormat="1">
-      <c r="B67" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" t="s">
-        <v>7</v>
-      </c>
-      <c r="M67"/>
-    </row>
-    <row r="68" spans="2:13" s="8" customFormat="1">
-      <c r="B68" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68"/>
-      <c r="M68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13">
-      <c r="L69" t="s">
+    </row>
+    <row r="105" spans="2:12" s="8" customFormat="1">
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="2:12" s="8" customFormat="1">
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="2:12" s="8" customFormat="1">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="2:12" s="8" customFormat="1">
+      <c r="B108" s="7"/>
+      <c r="I108" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J108" s="28"/>
+    </row>
+    <row r="109" spans="2:12" s="8" customFormat="1">
+      <c r="B109" s="7"/>
+      <c r="J109" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" s="8" customFormat="1">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="2:12" s="8" customFormat="1">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="2:12" s="8" customFormat="1">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="2:10" s="8" customFormat="1">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="2:10" s="8" customFormat="1">
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="2:10" s="8" customFormat="1">
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="2:10" s="8" customFormat="1">
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="2:10" s="8" customFormat="1">
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="2:10" s="8" customFormat="1">
+      <c r="B118" s="7"/>
+      <c r="I118" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J118" s="28"/>
+    </row>
+    <row r="119" spans="2:10" s="8" customFormat="1">
+      <c r="J119" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" s="8" customFormat="1">
+      <c r="J120" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="J121" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" s="5" customFormat="1">
+      <c r="B128" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="J131" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="J132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="J134" t="s">
+        <v>188</v>
+      </c>
+      <c r="K134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+      <c r="K136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="J138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="J139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" s="2" customFormat="1">
+      <c r="B143" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" s="24" customFormat="1"/>
+    <row r="145" spans="2:9" s="24" customFormat="1">
+      <c r="B145" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" s="24" customFormat="1">
+      <c r="B146" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C149" s="28"/>
+      <c r="E149" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F149" s="28"/>
+      <c r="H149" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="I149" s="28"/>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:13">
-      <c r="B70" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="M70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13">
-      <c r="B71" s="7"/>
-      <c r="C71" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13">
-      <c r="B72" s="7"/>
-      <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="L72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13">
-      <c r="B73" s="7"/>
-      <c r="C73" t="s">
-        <v>21</v>
-      </c>
-      <c r="L73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13">
-      <c r="B74" s="7"/>
-      <c r="C74" t="s">
-        <v>22</v>
-      </c>
-      <c r="M74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13">
-      <c r="B75" s="7"/>
-      <c r="C75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13">
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" spans="2:13" s="9" customFormat="1">
-      <c r="B77" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13">
-      <c r="B78" s="7"/>
-    </row>
-    <row r="79" spans="2:13">
-      <c r="B79" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13">
-      <c r="B80" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" s="2" customFormat="1">
-      <c r="B82" s="2" t="s">
+      <c r="E155" t="s">
+        <v>197</v>
+      </c>
+      <c r="F155">
+        <v>80</v>
+      </c>
+      <c r="H155" t="s">
+        <v>197</v>
+      </c>
+      <c r="I155">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" t="s">
+        <v>198</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>198</v>
+      </c>
+      <c r="F156">
         <v>5</v>
       </c>
+      <c r="H156" t="s">
+        <v>198</v>
+      </c>
+      <c r="I156">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" s="5" customFormat="1">
+      <c r="B158" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="B160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165" spans="2:11" s="9" customFormat="1">
+      <c r="B165" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="7"/>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="7"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="7"/>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="7"/>
+    </row>
+    <row r="173" spans="2:11">
+      <c r="B173" s="7"/>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="7"/>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7575,8 +9598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A58FD0-641D-48FB-A694-B3AAE203EBC3}">
   <dimension ref="A2:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7588,7 +9611,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="11" customFormat="1">
@@ -7601,7 +9624,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7609,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7617,12 +9640,12 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="12" customFormat="1">
       <c r="B10" s="12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7630,12 +9653,12 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7643,12 +9666,12 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7656,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7664,7 +9687,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D20" s="10"/>
     </row>
@@ -7673,12 +9696,12 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D23" s="10"/>
     </row>
@@ -7687,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7695,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7703,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,12 +9734,12 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="D28" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7724,12 +9747,12 @@
         <v>1</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7737,15 +9760,15 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7753,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7761,7 +9784,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7769,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7777,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7785,13 +9808,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1">
       <c r="A41"/>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7799,12 +9822,12 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="D44" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7812,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7823,10 +9846,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="C58" s="16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I58" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -7834,15 +9857,15 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="D60" s="16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -7850,12 +9873,12 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="C63" s="10" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D63" s="10"/>
     </row>
@@ -7864,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7872,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -7880,24 +9903,24 @@
         <v>1</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="C86" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:13">
       <c r="C87" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I87" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -7905,13 +9928,13 @@
         <v>1</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H89" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="M89" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -7943,19 +9966,19 @@
     </row>
     <row r="99" spans="1:8">
       <c r="C99" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:8">
       <c r="C100" s="19" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G100" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H100" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7963,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7974,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7982,7 +10005,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="C105" s="10" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D105" s="10"/>
     </row>
@@ -7991,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="14" customFormat="1"/>
@@ -8000,14 +10023,14 @@
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="14" customFormat="1"/>
     <row r="110" spans="1:8" s="4" customFormat="1">
       <c r="A110"/>
       <c r="C110" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8018,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -8029,44 +10052,44 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="2" customFormat="1">
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="H117" s="15" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I117" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="H118" s="15" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I118" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="H119" s="15" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I119" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="H120" s="15" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I120" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -8090,7 +10113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F474978-6D0D-461E-B923-6BDFC0159F20}">
   <dimension ref="A2:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
@@ -8103,7 +10126,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:2" s="11" customFormat="1">
@@ -8113,95 +10136,95 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:2" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:2" s="2" customFormat="1">
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="10" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="D20" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="10" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1">
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1">
       <c r="A29"/>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8213,127 +10236,127 @@
     <row r="59" spans="1:3" s="4" customFormat="1">
       <c r="A59"/>
       <c r="C59" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="C63" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="C64" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="10:10">
       <c r="J68" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="10:11">
       <c r="J81" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="10:11">
       <c r="J93" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="10:11">
       <c r="K94" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="10:11">
       <c r="K95" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="10:11">
       <c r="J96" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="K97" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="K98" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="J99" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="J101" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="J103" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="2:11" s="2" customFormat="1">
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="H107" s="15" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I107" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="H108" s="15" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I108" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="H109" s="15" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I109" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="H110" s="15" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I110" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="H111" s="15" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="I111" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="2:11">

--- a/2.checkUnity/Cookie仕様書.xlsx
+++ b/2.checkUnity/Cookie仕様書.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\github\GameEngine2\2.checkUnity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11065F-11AD-4E80-8CA3-53C3D56703DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87F576-1B34-442B-94D2-25E48B36AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.PushCookie" sheetId="1" r:id="rId1"/>
-    <sheet name="2.RollingCookie" sheetId="2" r:id="rId2"/>
+    <sheet name="2.RollingCookie" sheetId="4" r:id="rId2"/>
     <sheet name="3.BattleCookie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="197">
   <si>
     <t>コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -134,42 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Cookie1の手直し</t>
-    <rPh sb="9" eb="11">
-      <t>テナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クッキーをクリックするだけでは飽きるので、イベント的に別ゲーが始まる</t>
-    <rPh sb="16" eb="17">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・タイトル画面とゲームオーバー画面が欲しい</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加機能仕様</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -190,103 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Prefabを使用する</t>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・全てのオブジェクトにRigidbodyを付ける</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回転するクッキー</t>
-    <rPh sb="0" eb="2">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Rigidbody経由の回転に変更</t>
-    <rPh sb="10" eb="12">
-      <t>ケイユ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>落下するクッキー</t>
-    <rPh sb="0" eb="2">
-      <t>ラッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Prefabで複製する</t>
-    <rPh sb="8" eb="10">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面外で作成して落ちてくる</t>
-    <rPh sb="0" eb="3">
-      <t>ガメンガイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面外に出たら消す</t>
-    <rPh sb="0" eb="3">
-      <t>ガメンガイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Rigidbodyで動く</t>
-    <rPh sb="11" eb="12">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AddForceを使って段々加速させる</t>
-    <rPh sb="9" eb="10">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ダンダン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・クリック数のカウント</t>
     <rPh sb="5" eb="6">
       <t>スウ</t>
@@ -479,13 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cookie1と同じ</t>
-    <rPh sb="8" eb="9">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -648,26 +508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UseGravityで自由落下</t>
-    <rPh sb="11" eb="15">
-      <t>ジユウラッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・物理挙動をする全てのオブジェクトにRigidBodyを付ける</t>
-    <rPh sb="1" eb="5">
-      <t>ブツリキョドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>→</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2209,6 +2049,39 @@
   </si>
   <si>
     <t>サンプル：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーを流用してランゲームを作る</t>
+    <rPh sb="5" eb="7">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意点</t>
+    <rPh sb="0" eb="3">
+      <t>チュウイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エンジニア役とプランナー役に分かれなくて良い</t>
+    <rPh sb="6" eb="7">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2216,7 +2089,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2270,14 +2143,6 @@
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -2381,7 +2246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2403,14 +2268,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -5075,21 +4939,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7900AA-59A3-46F0-B8DF-8D26DC7F0512}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D7F6AC-C2FA-4EEE-A4F4-7639017B4C2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5111,8 +4975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="9791700"/>
-          <a:ext cx="4038600" cy="2271712"/>
+          <a:off x="1350645" y="5743575"/>
+          <a:ext cx="3962400" cy="2185987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5125,21 +4989,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>213743</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>213742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8965E7A3-07C2-4172-8EBC-92B82D7CF599}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119AE4D2-BDD6-4D3E-A5CD-19B8D120A00C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5161,8 +5025,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="14316076"/>
-          <a:ext cx="2724150" cy="2090167"/>
+          <a:off x="1360170" y="9629776"/>
+          <a:ext cx="2663190" cy="2013966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5175,21 +5039,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>191293</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>191294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A40B61-F43B-4DDA-92E3-A4ED8CE43F4D}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038FA69F-C7A3-466F-8C71-0EE5931CE43D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5211,8 +5075,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1373281" y="17500227"/>
-          <a:ext cx="2660837" cy="1803819"/>
+          <a:off x="1369695" y="12134851"/>
+          <a:ext cx="2653665" cy="1772443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5225,21 +5089,21 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>357150</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>233325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>187884</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87FF93B-DA5E-44CC-8509-B4C78101D8B5}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE04492-4C57-4CCC-BE78-4D64E0F6AC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5261,8 +5125,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7900950" y="20473950"/>
-          <a:ext cx="3259734" cy="1833600"/>
+          <a:off x="7733310" y="15313305"/>
+          <a:ext cx="3183534" cy="1765020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5275,21 +5139,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>127992</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>127993</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBF4F34-E4A3-437D-9940-F97AACD41B09}"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F612A1-3C6B-437C-89F6-21FF59FD76EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5311,8 +5175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714875" y="20478750"/>
-          <a:ext cx="3190875" cy="1794867"/>
+          <a:off x="4623435" y="15316200"/>
+          <a:ext cx="3114675" cy="1728193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5325,21 +5189,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>604309</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7973B9-BFFC-49F1-BE0C-55E55982D65C}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142014DB-E686-463A-9A48-CC6F2E6F9888}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5361,8 +5225,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400175" y="20478750"/>
-          <a:ext cx="3318934" cy="1866900"/>
+          <a:off x="1369695" y="15316200"/>
+          <a:ext cx="3257974" cy="1800226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5375,21 +5239,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447B2146-A38B-4532-89C9-631B3D0F91CF}"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4535652-3910-4AE5-856E-447E7696516B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5397,8 +5261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="781050" y="27565349"/>
-          <a:ext cx="1371600" cy="542926"/>
+          <a:off x="765810" y="22126574"/>
+          <a:ext cx="1341120" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5438,21 +5302,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFEB485-00FF-414F-B6B0-8CAD2D217447}"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39A08BD-CE87-4925-AE19-0A7D107AD108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5460,8 +5324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="26879550"/>
-          <a:ext cx="1647825" cy="381001"/>
+          <a:off x="2691765" y="21469350"/>
+          <a:ext cx="1617345" cy="361951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5504,21 +5368,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8B22E0-F753-4E82-B186-1C74AA03CBC2}"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C9F874-734C-4CA2-8F4F-C423739F3853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5526,8 +5390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733675" y="28384500"/>
-          <a:ext cx="1885950" cy="381001"/>
+          <a:off x="2680335" y="22907625"/>
+          <a:ext cx="1847850" cy="371476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5570,33 +5434,33 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782CAC3C-D5CF-4566-BE14-7A53880AF07C}"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A534A61-610F-4F2C-B3FA-4B637840E9F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="0"/>
-          <a:endCxn id="21" idx="1"/>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1466850" y="27070051"/>
-          <a:ext cx="1285875" cy="495298"/>
+          <a:off x="1436370" y="21650326"/>
+          <a:ext cx="1255395" cy="476248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5626,21 +5490,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293F2B6B-41E7-4F23-844A-A60FBA565950}"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FE96B6-23B8-43B1-A3B2-19628709CF75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,8 +5512,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1323975" y="26908125"/>
-          <a:ext cx="1419226" cy="619125"/>
+          <a:off x="1308735" y="21488400"/>
+          <a:ext cx="1373506" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5679,21 +5543,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6823E0C4-294C-4D07-8C1A-EED54FCD81A0}"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3341840C-A2C5-4BFD-8C50-A98E050CB1D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5701,8 +5565,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="27298650"/>
-          <a:ext cx="0" cy="1038225"/>
+          <a:off x="3352800" y="21869400"/>
+          <a:ext cx="0" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5732,33 +5596,33 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4103568-D24C-48F3-8E93-D8E8444319ED}"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D61E282-FE4F-456B-8B3E-F154CAE0444A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="1"/>
-          <a:endCxn id="20" idx="2"/>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1466850" y="28108275"/>
-          <a:ext cx="1266825" cy="466726"/>
+          <a:off x="1436370" y="22640925"/>
+          <a:ext cx="1243965" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5788,16 +5652,16 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D84840-CE49-4560-883A-B95F4DA90BBD}"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39726827-F293-4493-AD4D-4704835FA141}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5805,7 +5669,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="26955750"/>
+          <a:off x="1684020" y="21536025"/>
           <a:ext cx="325730" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5846,16 +5710,16 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BAA157-45AA-48B3-A253-2C54D44590CE}"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A68676-FD6E-4882-87E7-8E3ED0C0179A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5863,7 +5727,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114550" y="27222450"/>
+          <a:off x="2068830" y="21793200"/>
           <a:ext cx="325730" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5904,16 +5768,16 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="テキスト ボックス 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A460052A-C7F3-4A06-B9BC-F606CBBA7059}"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F1DBB3-4985-4D73-932B-B8B05F560306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +5785,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="28308300"/>
+          <a:off x="1779270" y="22840950"/>
           <a:ext cx="325730" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5962,16 +5826,16 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4CD629-0C54-4738-8FC4-8D7D0022C348}"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8B22BB-5D2D-49F3-9306-DE3E5605F860}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5979,7 +5843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="27651075"/>
+          <a:off x="3310890" y="22202775"/>
           <a:ext cx="325730" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6020,16 +5884,16 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC084049-4E7D-4F78-A8A0-9750AE6825C2}"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C417F23-B392-43FD-AAC6-CBC1475BCFEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6037,7 +5901,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="26908125"/>
+          <a:off x="4693920" y="21488400"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6075,21 +5939,21 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>216642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>189013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A9F9DB-13C0-C38A-C682-2C47FFA630C2}"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CB6932-9277-4FAC-BAF5-1C8EE2A191EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6111,8 +5975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6230471" y="11041524"/>
-          <a:ext cx="2935941" cy="2560930"/>
+          <a:off x="6113482" y="5703042"/>
+          <a:ext cx="2883945" cy="2486971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8896,7 +8760,7 @@
   <dimension ref="B2:L175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8921,105 +8785,105 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" s="20" customFormat="1">
-      <c r="B7" s="21" t="s">
-        <v>113</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="19" customFormat="1">
+      <c r="B7" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="25" customFormat="1">
-      <c r="B17" s="26" t="s">
-        <v>168</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="24" customFormat="1">
+      <c r="B17" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="E24" s="23" t="s">
-        <v>173</v>
+      <c r="E24" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="E31" s="23" t="s">
-        <v>174</v>
+      <c r="E31" s="22" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:10" s="2" customFormat="1">
@@ -9029,7 +8893,7 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:10" s="2" customFormat="1">
@@ -9039,139 +8903,139 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="2" customFormat="1">
       <c r="B44" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" s="24" customFormat="1"/>
-    <row r="46" spans="2:10" s="24" customFormat="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" s="23" customFormat="1"/>
+    <row r="46" spans="2:10" s="23" customFormat="1">
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:10" s="24" customFormat="1">
-      <c r="J47" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" s="24" customFormat="1">
-      <c r="J48" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" s="24" customFormat="1">
-      <c r="J49" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" s="24" customFormat="1">
-      <c r="J50" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" s="24" customFormat="1">
-      <c r="J51" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" s="24" customFormat="1">
-      <c r="J52" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" s="24" customFormat="1">
-      <c r="J53" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" s="24" customFormat="1">
-      <c r="J54" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" s="24" customFormat="1"/>
-    <row r="56" spans="2:11" s="24" customFormat="1"/>
-    <row r="57" spans="2:11" s="24" customFormat="1"/>
-    <row r="58" spans="2:11" s="24" customFormat="1"/>
-    <row r="59" spans="2:11" s="24" customFormat="1"/>
+    <row r="47" spans="2:10" s="23" customFormat="1">
+      <c r="J47" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" s="23" customFormat="1">
+      <c r="J48" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="23" customFormat="1">
+      <c r="J49" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="23" customFormat="1">
+      <c r="J50" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="23" customFormat="1">
+      <c r="J51" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="23" customFormat="1">
+      <c r="J52" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="23" customFormat="1">
+      <c r="J53" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" s="23" customFormat="1">
+      <c r="J54" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="23" customFormat="1"/>
+    <row r="56" spans="2:11" s="23" customFormat="1"/>
+    <row r="57" spans="2:11" s="23" customFormat="1"/>
+    <row r="58" spans="2:11" s="23" customFormat="1"/>
+    <row r="59" spans="2:11" s="23" customFormat="1"/>
     <row r="60" spans="2:11" s="4" customFormat="1">
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="J62" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="2:11">
       <c r="K63" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="K64" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="K65" s="18" t="s">
-        <v>145</v>
+      <c r="K65" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="J67" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11">
       <c r="K68" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="K69" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="K70" s="18" t="s">
-        <v>147</v>
+      <c r="K70" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:11">
-      <c r="K71" s="23"/>
+      <c r="K71" s="22"/>
     </row>
     <row r="72" spans="2:11">
       <c r="J72" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="K73" s="18" t="s">
-        <v>149</v>
+      <c r="K73" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C74" s="1"/>
       <c r="K74" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="C75" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D75">
         <v>1280</v>
@@ -9179,129 +9043,129 @@
     </row>
     <row r="76" spans="2:11">
       <c r="C76" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <v>720</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11">
       <c r="C77" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="22">
+        <v>106</v>
+      </c>
+      <c r="E77" s="21">
         <v>0.67291666666666661</v>
       </c>
       <c r="K77" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="K78" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C79" s="1"/>
       <c r="K79" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="C80" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="K80" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="2:12">
-      <c r="C81" s="23" t="s">
-        <v>125</v>
+      <c r="C81" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="2:12">
-      <c r="C82" s="23" t="s">
-        <v>126</v>
+      <c r="C82" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="2:12">
-      <c r="C83" s="23" t="s">
-        <v>127</v>
+      <c r="C83" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="2:12">
       <c r="C84" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="2:12">
       <c r="C85" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="2:12" s="2" customFormat="1">
       <c r="B87" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="2:12">
       <c r="K89" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="2:12">
       <c r="L90" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="2:12">
       <c r="L91" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="2:12">
       <c r="L92" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="2:12">
       <c r="K94" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="L94" s="1"/>
     </row>
     <row r="95" spans="2:12">
       <c r="L95" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="2:12">
       <c r="L96" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="2:12">
       <c r="L97" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="2:12">
       <c r="L98" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="2:12">
       <c r="L99" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="2:12">
@@ -9319,7 +9183,7 @@
     </row>
     <row r="104" spans="2:12" s="5" customFormat="1">
       <c r="B104" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="2:12" s="8" customFormat="1">
@@ -9333,15 +9197,15 @@
     </row>
     <row r="108" spans="2:12" s="8" customFormat="1">
       <c r="B108" s="7"/>
-      <c r="I108" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="J108" s="28"/>
+      <c r="I108" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J108" s="27"/>
     </row>
     <row r="109" spans="2:12" s="8" customFormat="1">
       <c r="B109" s="7"/>
       <c r="J109" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="2:12" s="8" customFormat="1">
@@ -9370,117 +9234,117 @@
     </row>
     <row r="118" spans="2:10" s="8" customFormat="1">
       <c r="B118" s="7"/>
-      <c r="I118" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="J118" s="28"/>
+      <c r="I118" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J118" s="27"/>
     </row>
     <row r="119" spans="2:10" s="8" customFormat="1">
       <c r="J119" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="2:10" s="8" customFormat="1">
       <c r="J120" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="J121" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="2:10" s="5" customFormat="1">
       <c r="B128" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="J131" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="J132" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="J134" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="K134" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="J136" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="K136" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="2:11">
       <c r="J138" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="J139" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="2:11" s="2" customFormat="1">
       <c r="B143" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" s="24" customFormat="1"/>
-    <row r="145" spans="2:9" s="24" customFormat="1">
-      <c r="B145" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" s="24" customFormat="1">
-      <c r="B146" s="24" t="s">
-        <v>201</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" s="23" customFormat="1"/>
+    <row r="145" spans="2:9" s="23" customFormat="1">
+      <c r="B145" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" s="23" customFormat="1">
+      <c r="B146" s="23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="2:9">
       <c r="B147" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="2:9">
-      <c r="B149" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C149" s="28"/>
-      <c r="E149" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F149" s="28"/>
-      <c r="H149" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="I149" s="28"/>
+      <c r="B149" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" s="27"/>
+      <c r="E149" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F149" s="27"/>
+      <c r="H149" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I149" s="27"/>
     </row>
     <row r="155" spans="2:9">
       <c r="B155" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C155">
         <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F155">
         <v>80</v>
       </c>
       <c r="H155" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="I155">
         <v>800</v>
@@ -9488,19 +9352,19 @@
     </row>
     <row r="156" spans="2:9">
       <c r="B156" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F156">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="I156">
         <v>80</v>
@@ -9508,27 +9372,27 @@
     </row>
     <row r="158" spans="2:9" s="5" customFormat="1">
       <c r="B158" s="6" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="2:9">
       <c r="B160" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="2:11">
       <c r="B161" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="2:11">
       <c r="B162" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="2:11">
       <c r="B163" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="2:11">
@@ -9536,7 +9400,7 @@
     </row>
     <row r="165" spans="2:11" s="9" customFormat="1">
       <c r="B165" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -9544,7 +9408,7 @@
     </row>
     <row r="167" spans="2:11">
       <c r="B167" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -9595,511 +9459,385 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A58FD0-641D-48FB-A694-B3AAE203EBC3}">
-  <dimension ref="A2:M123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6E7740-CB68-400E-883A-0222D2EF0D17}">
+  <dimension ref="A2:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:2" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="11" customFormat="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1">
       <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="12" customFormat="1">
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1">
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1">
+      <c r="A19"/>
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="C20" s="10" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="C23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="D28" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
-      <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="25" spans="1:4">
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="C36" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="D38" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="C41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="C64" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="4" customFormat="1">
-      <c r="A41"/>
-      <c r="C41" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
+      <c r="M67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="C77" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="C78" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
+      <c r="C79" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="C80" s="13"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="C47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="C58" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="D60" s="16" t="s">
+      <c r="C81" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
+    <row r="82" spans="1:9">
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="C83" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="C63" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="14" customFormat="1"/>
+    <row r="86" spans="1:9" s="14" customFormat="1">
+      <c r="A86" s="14">
+        <v>1</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="14" customFormat="1"/>
+    <row r="88" spans="1:9" s="4" customFormat="1">
+      <c r="A88"/>
+      <c r="C88" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="2" customFormat="1">
+      <c r="B93" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="C86" s="10" t="s">
+    <row r="95" spans="1:9">
+      <c r="H95" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="10"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="C87" t="s">
+      <c r="I95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="H96" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9">
+      <c r="H97" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H87" t="s">
-        <v>72</v>
-      </c>
-      <c r="I87" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="C89" s="7" t="s">
+      <c r="I97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9">
+      <c r="H98" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H89" t="s">
-        <v>53</v>
-      </c>
-      <c r="M89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="C90" s="13"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="C91" s="13"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="C92" s="13"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="C93" s="13"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="C96" s="13"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="C97" s="13"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="C98" s="13"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="C99" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="C100" s="19" t="s">
+      <c r="I98" t="s">
         <v>55</v>
       </c>
-      <c r="G100" t="s">
-        <v>72</v>
-      </c>
-      <c r="H100" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="C102" s="13"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="C105" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" s="10"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="14" customFormat="1"/>
-    <row r="108" spans="1:8" s="14" customFormat="1">
-      <c r="A108" s="14">
-        <v>1</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="14" customFormat="1"/>
-    <row r="110" spans="1:8" s="4" customFormat="1">
-      <c r="A110"/>
-      <c r="C110" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="2" customFormat="1">
-      <c r="B115" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="H117" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I117" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="H118" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I118" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="H119" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I119" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="H120" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I120" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="H121" s="15"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="H122" s="15"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="H123" s="15"/>
+    </row>
+    <row r="99" spans="8:9">
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="8:9">
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="8:9">
+      <c r="H101" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10113,8 +9851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F474978-6D0D-461E-B923-6BDFC0159F20}">
   <dimension ref="A2:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10136,22 +9874,22 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:2" s="12" customFormat="1">
@@ -10161,202 +9899,202 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:2" s="2" customFormat="1">
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="D20" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1">
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1">
       <c r="A29"/>
       <c r="C29" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1">
       <c r="A59"/>
       <c r="C59" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="C63" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="C64" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="10:10">
       <c r="J68" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="10:11">
       <c r="J81" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="10:11">
       <c r="J93" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="10:11">
       <c r="K94" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="10:11">
       <c r="K95" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="10:11">
       <c r="J96" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="K97" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="K98" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="J99" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="J101" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="J103" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="2:11" s="2" customFormat="1">
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="H107" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I107" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="H108" s="15" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I108" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="H109" s="15" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I109" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="H110" s="15" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I110" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="H111" s="15" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I111" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="2:11">

--- a/2.checkUnity/Cookie仕様書.xlsx
+++ b/2.checkUnity/Cookie仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\github\GameEngine2\2.checkUnity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87F576-1B34-442B-94D2-25E48B36AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BC6BD2-2715-4E2A-8632-1C9FF1796A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6744" yWindow="0" windowWidth="16200" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.PushCookie" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
   <si>
     <t>コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -114,80 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クッキークリッカーのパクリを始めたら突然ランゲームが始まる。</t>
-    <rPh sb="14" eb="15">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トツゼン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様リソース</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加機能仕様</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>キノウシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正機能仕様</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>キノウシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クリック数のカウント</t>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・指定クリック後にイベントが発生</t>
-    <rPh sb="1" eb="3">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>32クリック後</t>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランゲームに移行する</t>
-    <rPh sb="6" eb="8">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ランゲーム仕様</t>
     <rPh sb="5" eb="7">
       <t>シヨウ</t>
@@ -195,74 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・別シーンとして作る</t>
-    <rPh sb="1" eb="2">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ゲームオーバーシーンも作る。</t>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリアしたらクリックに戻る</t>
-    <rPh sb="11" eb="12">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームオーバー仕様</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ゲームオーバーと分かる画像が表示される</t>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・何かしらクリックしたらクリックに戻る</t>
-    <rPh sb="1" eb="2">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ランゲームシーンを作る</t>
-    <rPh sb="10" eb="11">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ゲームオーバーシーンを作る</t>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>操作性</t>
     <rPh sb="0" eb="3">
       <t>ソウサセイ</t>
@@ -270,52 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上図のようなクオータービューのランゲームを作成する。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウズ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クッキーは図のように縦に転がっていく</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・カメラは図のような形</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・移動とジャンプで障害物を避ける</t>
-    <rPh sb="1" eb="3">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・左右スワイプで左右に移動</t>
     <rPh sb="1" eb="3">
       <t>サユウ</t>
@@ -357,28 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下の順で障害物が出るステージをお願い致します。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.通り抜け</t>
     <rPh sb="2" eb="3">
       <t>トオ</t>
@@ -406,22 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・クッキー側面の前面が障害物に当たる</t>
-    <rPh sb="5" eb="7">
-      <t>ソクメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゼンメン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・穴に落ちる</t>
     <rPh sb="1" eb="2">
       <t>アナ</t>
@@ -432,13 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームオーバーになったら、ゲームオーバーシーンに遷移</t>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリアシーン判定</t>
     <rPh sb="6" eb="8">
       <t>ハンテイ</t>
@@ -446,26 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ステージ全てクリアしたらクリア判定</t>
-    <rPh sb="5" eb="6">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリアしたら、元のクリックシーンに戻る。</t>
-    <rPh sb="7" eb="8">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シーン遷移図</t>
     <rPh sb="3" eb="6">
       <t>センイズ</t>
@@ -473,10 +220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>32クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -489,15 +232,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームオーバー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -508,164 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内部でカウント。表示はされない。</t>
-    <rPh sb="0" eb="2">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図のクォータービューはやりづらすぎたのでこっちで。</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下のままだと面白みにかけすぎるので多少改造した。</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オモシロ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タショウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クソゲー過ぎたので無しで</t>
-    <rPh sb="4" eb="5">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Cookie2の手直し</t>
-    <rPh sb="9" eb="11">
-      <t>テナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ランゲームシーンのロードが重すぎるのでなんとかする</t>
-    <rPh sb="14" eb="15">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クリックシーンにUIを付ける</t>
-    <rPh sb="12" eb="13">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・格ゲーを追加したい</t>
-    <rPh sb="1" eb="2">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>頑張って集める</t>
-    <rPh sb="0" eb="2">
-      <t>ガンバ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランゲームのロード時間を減らす</t>
-    <rPh sb="9" eb="11">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ゲームが止まったかと思うほど長い</t>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UXが悪くなりすぎなので、どうにかして短くしてください</t>
-    <rPh sb="3" eb="4">
-      <t>ワル</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ミジカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３秒以内くらいに。</t>
-    <rPh sb="1" eb="2">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックシーン仕様</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>格ゲーシーン仕様</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・64クリックで格ゲーが発生</t>
-    <rPh sb="8" eb="9">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・３D格ゲーで自機はクッキー</t>
     <rPh sb="3" eb="4">
       <t>カク</t>
@@ -821,42 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームオーバーシーンの修正</t>
-    <rPh sb="11" eb="13">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クッキーのカウントを０にする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・リファクタリング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプなどの動作のコードが悪いので、最適化してください。</t>
-    <rPh sb="7" eb="9">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ワル</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>サイテキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>64クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クッキークリッカーをパクるが、完コピは大変なので適当に改変する。</t>
     <rPh sb="15" eb="16">
       <t>カン</t>
@@ -2082,6 +1623,278 @@
     <rPh sb="21" eb="22">
       <t>ヨ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・３Ｄゲームとしては基本中の基本であるランゲームの作成</t>
+    <rPh sb="10" eb="13">
+      <t>キホンチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左のようなやや変形調のクウォータービュー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦:</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横:</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windowモードで作成すること</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左下を見下ろすような形のカメラ位置</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低でも以下の障害物を持つ事。</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・ゲームオーバーになったら、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ゲームオーバーシーン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に遷移</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・ステージの最後までたどり着けば</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>クリアシーン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に遷移</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>サイゴツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアシーンとゲームオーバーシーンの仕様</t>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームオーバーorクリアと分かるようにしてある。</t>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・何かしらクリックしたらランゲームに戻る。</t>
+    <rPh sb="1" eb="2">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴に落ちる</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クッキーで格ゲーもどきを作る</t>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アニメーションを使えるように</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル仕様</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・演出の事も多少は考える</t>
+    <rPh sb="1" eb="3">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・その後にそれっぽいカメラワーク演出があると嬉しい</t>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・戦闘開始直後にWarningアニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ストリートファイターとかにあるやつ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勝ったらクリアシーンへ</t>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2183,7 +1996,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2232,6 +2045,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2246,7 +2065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2277,6 +2096,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4937,16 +4757,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45384</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654984</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4975,8 +4795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1350645" y="5743575"/>
-          <a:ext cx="3962400" cy="2185987"/>
+          <a:off x="717737" y="3291726"/>
+          <a:ext cx="3971365" cy="2226328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4987,16 +4807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90768</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>213742</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>70307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5025,8 +4845,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1360170" y="9629776"/>
-          <a:ext cx="2663190" cy="2013966"/>
+          <a:off x="763121" y="6411447"/>
+          <a:ext cx="2670362" cy="2049825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5037,16 +4857,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100292</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>191294</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>227153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5075,8 +4895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1369695" y="12134851"/>
-          <a:ext cx="2653665" cy="1772443"/>
+          <a:off x="4134410" y="6581216"/>
+          <a:ext cx="2660837" cy="1803819"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5087,16 +4907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>357150</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>233325</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25456</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>187884</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77687</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5125,8 +4945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7733310" y="15313305"/>
-          <a:ext cx="3183534" cy="1765020"/>
+          <a:off x="697809" y="12390811"/>
+          <a:ext cx="3413996" cy="1925825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5138,15 +4958,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>17368</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>127993</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>475129</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5161,7 +4981,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -5169,14 +4989,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect r="10222"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4623435" y="15316200"/>
-          <a:ext cx="3114675" cy="1728193"/>
+          <a:off x="4051486" y="10031507"/>
+          <a:ext cx="3147172" cy="1974695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5187,16 +5006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55469</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604309</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>631203</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5225,8 +5044,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1369695" y="15316200"/>
-          <a:ext cx="3257974" cy="1800226"/>
+          <a:off x="727822" y="10094259"/>
+          <a:ext cx="3265146" cy="1831602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5239,13 +5058,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5291,7 +5110,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>クリック</a:t>
+            <a:t>クリア</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5302,13 +5121,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5368,13 +5187,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5434,13 +5253,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5490,13 +5309,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5543,13 +5362,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5594,16 +5413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5614,15 +5433,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="1"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1436370" y="22640925"/>
-          <a:ext cx="1243965" cy="447676"/>
+        <a:xfrm flipV="1">
+          <a:off x="3092824" y="18305930"/>
+          <a:ext cx="89647" cy="1030941"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5652,7 +5468,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -5710,7 +5526,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -5727,7 +5543,123 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2068830" y="21793200"/>
+          <a:off x="2074209" y="18256624"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>662267</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>164727</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F1DBB3-4985-4D73-932B-B8B05F560306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679326" y="18811315"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8B22BB-5D2D-49F3-9306-DE3E5605F860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3318062" y="18675163"/>
           <a:ext cx="325730" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5766,125 +5698,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F1DBB3-4985-4D73-932B-B8B05F560306}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1779270" y="22840950"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>④</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8B22BB-5D2D-49F3-9306-DE3E5605F860}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3310890" y="22202775"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -5935,56 +5751,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>216642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>189013</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CB6932-9277-4FAC-BAF5-1C8EE2A191EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6113482" y="5703042"/>
-          <a:ext cx="2883945" cy="2486971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5992,16 +5758,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>35699</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>16649</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50939</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>39509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>646508</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>661748</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6030,8 +5796,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1407299" y="20019149"/>
-          <a:ext cx="4725609" cy="2955151"/>
+          <a:off x="721499" y="9183509"/>
+          <a:ext cx="4634169" cy="2840851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6042,16 +5808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6066,8 +5832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2914650" y="20107275"/>
-          <a:ext cx="1685925" cy="533400"/>
+          <a:off x="2198370" y="9271635"/>
+          <a:ext cx="1655445" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="irregularSeal2">
           <a:avLst/>
@@ -6113,22 +5879,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>55246</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>631016</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>162192</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B99002-F2A7-434F-813D-D682ABEF2097}"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725751D9-9E43-420E-A964-B43BC2D84BF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6150,8 +5916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="5762625"/>
-          <a:ext cx="5441141" cy="3210192"/>
+          <a:off x="725806" y="3253740"/>
+          <a:ext cx="4644389" cy="2847882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6160,83 +5926,75 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD7BADB-3A4D-4A67-AF1D-02B344468C4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>191432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB768EF-8EE5-4FDC-99C6-22522C043DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="5838825"/>
-          <a:ext cx="327654" cy="264560"/>
+          <a:off x="722910" y="6272176"/>
+          <a:ext cx="4637760" cy="2834656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>29</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>585597</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152011</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>64008</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>27432</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 上 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E797EEFA-9DBA-40CE-B733-8C907C0F1D66}"/>
+        <xdr:cNvPr id="17" name="矢印: 右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34985CE-BA10-4412-9506-26C7B5889006}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6244,10 +6002,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457325" y="6162676"/>
-          <a:ext cx="499872" cy="656835"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
+          <a:off x="1798320" y="8029575"/>
+          <a:ext cx="947928" cy="227457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -6278,20 +6036,863 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2159566" cy="328423"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178308</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>56006</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F631F9-2BB0-4A7B-B179-041CA97E71FD}"/>
+        <xdr:cNvPr id="18" name="矢印: 右 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF9888A-5245-4C2E-912D-DD22A776121C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3253740" y="8010524"/>
+          <a:ext cx="947928" cy="275082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129539</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7A1FB4-9016-441B-9925-1BAFD7DD4CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="11433810"/>
+          <a:ext cx="1360169" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Attack!</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B300AA91-8F2C-4528-BF15-E63D5C421D3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="746760" y="8496300"/>
+          <a:ext cx="1360169" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Attack!</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F69094-FEB6-4A1D-AE06-B2A8E351A1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="8496300"/>
+          <a:ext cx="1360169" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Push!</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337185</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>356234</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6538110-1658-4A38-9667-CBB86FDCFD8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3689985" y="5511165"/>
+          <a:ext cx="1360169" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Push!</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>207645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243839</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A43A8D-C19D-4DB4-A5A6-D144238CB6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="5465445"/>
+          <a:ext cx="1360169" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Attack!</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643889</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4956E38-8E45-46FF-9883-9473B96210EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3977640" y="11433810"/>
+          <a:ext cx="1360169" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Push!</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6060DC6-2C34-4423-A7E9-A883B1DE9DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="880110" y="3379469"/>
+          <a:ext cx="209550" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>653415</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53D746E-E789-48CD-BDB5-4ECE995D62EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1784985" y="3400424"/>
+          <a:ext cx="209550" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>186689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA9792C-3349-4D5D-A077-35C3C53C6F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1156335" y="3387089"/>
+          <a:ext cx="209550" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>194309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="楕円 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91D9BD3-6BFE-421E-9CC3-770B7F3DE180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="3394709"/>
+          <a:ext cx="194310" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E4C47D-3510-4571-83EF-2778CB19AFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="582930" y="17701260"/>
+          <a:ext cx="1341120" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>クリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>207645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>405765</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187E8D84-697B-496A-982F-DCC63B3E16DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="17809845"/>
+          <a:ext cx="1847850" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ゲームオーバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A58E64-7024-456E-8954-A7E1E88CE8CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,25 +6900,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="6915151"/>
-          <a:ext cx="2159566" cy="328423"/>
+          <a:off x="4800600" y="27622500"/>
+          <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6326,34 +6928,97 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0AD55B-7762-4D93-9B9A-A8B748191FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1699260" y="16697325"/>
+          <a:ext cx="1602105" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>現在のクリック数が表示される</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>格ゲー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11429</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>631016</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>124092</xdr:rowOff>
+      <xdr:rowOff>5622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABA925D-538D-45AF-A9CD-303BA5AD1C17}"/>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB07D16-FBE9-43AC-8F38-D7E4FC122B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6375,8 +7040,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="9058275"/>
-          <a:ext cx="5441141" cy="3210192"/>
+          <a:off x="731520" y="6987540"/>
+          <a:ext cx="4644389" cy="2847882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6387,18 +7052,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4610100" cy="781111"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA3BB05-4454-4101-AD01-111AE408350F}"/>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E991B2B8-9686-4DD7-BF2D-30786AE87F58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6406,7 +7071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743075" y="10172700"/>
+          <a:off x="746760" y="8039100"/>
           <a:ext cx="4610100" cy="781111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6454,1224 +7119,37 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3852337" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D500AC8-FFE0-4DF2-8AD6-08A3EB5CD28D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190750" y="11706225"/>
-          <a:ext cx="3852337" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>イベント発生時にイベント発生を知らせるポップが出る。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>271272</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>237735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矢印: 上 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34FDFFD-B2E1-4823-977B-FA52084AA1F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3886200" y="11010900"/>
-          <a:ext cx="499872" cy="656835"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>104682</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725751D9-9E43-420E-A964-B43BC2D84BF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1419226" y="14049375"/>
-          <a:ext cx="4743449" cy="2962182"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>138076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>237152</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB768EF-8EE5-4FDC-99C6-22522C043DF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1423950" y="17044951"/>
-          <a:ext cx="4729200" cy="2956576"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>64008</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>65532</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="矢印: 右 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34985CE-BA10-4412-9506-26C7B5889006}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2514600" y="18878550"/>
-          <a:ext cx="978408" cy="236982"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>178308</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>94106</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="矢印: 右 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF9888A-5245-4C2E-912D-DD22A776121C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4000500" y="18859499"/>
-          <a:ext cx="978408" cy="284607"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7A1FB4-9016-441B-9925-1BAFD7DD4CBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1466850" y="22355175"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Attack!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B300AA91-8F2C-4528-BF15-E63D5C421D3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1447800" y="19364325"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Attack!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="楕円 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F69094-FEB6-4A1D-AE06-B2A8E351A1A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4714875" y="19364325"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Push!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="楕円 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6538110-1658-4A38-9667-CBB86FDCFD8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4695825" y="16354425"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Push!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="楕円 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A43A8D-C19D-4DB4-A5A6-D144238CB6AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1466850" y="16316325"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Attack!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="楕円 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4956E38-8E45-46FF-9883-9473B96210EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="22355175"/>
-          <a:ext cx="1390649" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Push!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="楕円 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6060DC6-2C34-4423-A7E9-A883B1DE9DFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1504950" y="14106524"/>
-          <a:ext cx="209550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="楕円 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53D746E-E789-48CD-BDB5-4ECE995D62EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2295525" y="14096999"/>
-          <a:ext cx="209550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA9792C-3349-4D5D-A077-35C3C53C6F02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1743075" y="14106524"/>
-          <a:ext cx="209550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="楕円 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91D9BD3-6BFE-421E-9CC3-770B7F3DE180}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="14106524"/>
-          <a:ext cx="209550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E4C47D-3510-4571-83EF-2778CB19AFE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781050" y="28279724"/>
-          <a:ext cx="1371600" cy="542926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>クリック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F1E3F5-DFEC-44F0-BD15-FD790A24FE05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2752725" y="27593925"/>
-          <a:ext cx="1647825" cy="381001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ランゲーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187E8D84-697B-496A-982F-DCC63B3E16DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2733675" y="29098875"/>
-          <a:ext cx="1885950" cy="381001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ゲームオーバー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>488633</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4E8442-DD3D-45A1-A494-575190BF0413}"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733820C9-398C-45D4-ABC8-24A2F7CAD115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="0"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="32" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1466850" y="27784426"/>
-          <a:ext cx="1285875" cy="495298"/>
+        <a:xfrm flipH="1">
+          <a:off x="1253490" y="17059276"/>
+          <a:ext cx="1246823" cy="641984"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7699,32 +7177,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>158116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE17AB5A-294C-4740-916B-AFC958434CEF}"/>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1895FC-BEB0-4E21-B3A7-BDC56D18782D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1323975" y="27622500"/>
-          <a:ext cx="1419226" cy="619125"/>
+        <a:xfrm>
+          <a:off x="2820353" y="17074516"/>
+          <a:ext cx="799147" cy="718184"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7752,32 +7230,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350521</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546822E8-ACE0-415F-9C2A-C3AC414617C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AAEA4E-19C3-4465-8C78-1E62282C3DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="28013025"/>
-          <a:ext cx="0" cy="1038225"/>
+        <a:xfrm flipV="1">
+          <a:off x="1021081" y="16878301"/>
+          <a:ext cx="678179" cy="822959"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7805,35 +7285,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41532869-6407-45F4-981D-3555F0F01783}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="1"/>
-          <a:endCxn id="32" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6740E4F4-2375-48B3-9485-1BD2050DB7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1466850" y="28822650"/>
-          <a:ext cx="1266825" cy="466726"/>
+          <a:off x="3345180" y="17023080"/>
+          <a:ext cx="693420" cy="754380"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7859,638 +7336,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="テキスト ボックス 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBFA7C5-0DB3-4BEC-8CDB-EA1ECBBED78A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="27670125"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87FB27C-20CB-4A1E-9668-DA06ED4B1000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2114550" y="27936825"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="テキスト ボックス 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E4D84D-4574-49E6-94A4-3128713713CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="29022675"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>④</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA89FE8-7027-4BCD-8A3B-BCB39FA5701F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371850" y="28365450"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="テキスト ボックス 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A58E64-7024-456E-8954-A7E1E88CE8CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="27622500"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0AD55B-7762-4D93-9B9A-A8B748191FC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="27822525"/>
-          <a:ext cx="1647825" cy="381001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>格ゲー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49A440D-02F4-4286-BCBD-0150A7E4393B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3457575" y="27079575"/>
-          <a:ext cx="71438" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F3C24B-CF00-42B9-A745-FAAAB49F4B7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524250" y="27355800"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9FC18A-B6E8-4230-8B96-971C2E2F04D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="44" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="26469975"/>
-          <a:ext cx="1362075" cy="1543051"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C2EA18-CC6C-4620-A516-B263D22D1649}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1190625" y="26450925"/>
-          <a:ext cx="1409700" cy="1600201"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0805F67A-4760-45AB-B11D-042E9DAC19FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1504950" y="27098625"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8759,8 +7604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8785,105 +7630,105 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="19" customFormat="1">
       <c r="B7" s="20" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="24" customFormat="1">
       <c r="B17" s="25" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="E24" s="22" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="E31" s="22" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:10" s="2" customFormat="1">
@@ -8893,7 +7738,7 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:10" s="2" customFormat="1">
@@ -8903,59 +7748,59 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="2" customFormat="1">
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="23" customFormat="1"/>
     <row r="46" spans="2:10" s="23" customFormat="1">
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:10" s="23" customFormat="1">
       <c r="J47" s="23" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:10" s="23" customFormat="1">
       <c r="J48" s="23" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:11" s="23" customFormat="1">
       <c r="J49" s="23" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:11" s="23" customFormat="1">
       <c r="J50" s="23" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="2:11" s="23" customFormat="1">
       <c r="J51" s="23" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="2:11" s="23" customFormat="1">
       <c r="J52" s="23" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="2:11" s="23" customFormat="1">
       <c r="J53" s="23" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="2:11" s="23" customFormat="1">
       <c r="J54" s="23" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="2:11" s="23" customFormat="1"/>
@@ -8965,49 +7810,49 @@
     <row r="59" spans="2:11" s="23" customFormat="1"/>
     <row r="60" spans="2:11" s="4" customFormat="1">
       <c r="B60" s="4" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="J62" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="2:11">
       <c r="K63" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="K64" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="K65" s="17" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="J67" s="1" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11">
       <c r="K68" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="K69" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="K70" s="17" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -9015,27 +7860,27 @@
     </row>
     <row r="72" spans="2:11">
       <c r="J72" s="1" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11">
       <c r="K73" s="17" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="1" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1"/>
       <c r="K74" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="C75" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D75">
         <v>1280</v>
@@ -9043,129 +7888,129 @@
     </row>
     <row r="76" spans="2:11">
       <c r="C76" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D76">
         <v>720</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11">
       <c r="C77" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="E77" s="21">
         <v>0.67291666666666661</v>
       </c>
       <c r="K77" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="K78" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C79" s="1"/>
       <c r="K79" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="C80" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="K80" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="2:12">
       <c r="C81" s="22" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="2:12">
       <c r="C82" s="22" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="2:12">
       <c r="C83" s="22" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="2:12">
       <c r="C84" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="2:12">
       <c r="C85" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="2:12" s="2" customFormat="1">
       <c r="B87" s="2" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="2:12">
       <c r="K89" s="1" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="2:12">
       <c r="L90" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="2:12">
       <c r="L91" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="2:12">
       <c r="L92" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="2:12">
       <c r="K94" s="1" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="L94" s="1"/>
     </row>
     <row r="95" spans="2:12">
       <c r="L95" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:12">
       <c r="L96" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="2:12">
       <c r="L97" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="2:12">
       <c r="L98" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="2:12">
       <c r="L99" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="2:12">
@@ -9183,7 +8028,7 @@
     </row>
     <row r="104" spans="2:12" s="5" customFormat="1">
       <c r="B104" s="6" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="2:12" s="8" customFormat="1">
@@ -9198,14 +8043,14 @@
     <row r="108" spans="2:12" s="8" customFormat="1">
       <c r="B108" s="7"/>
       <c r="I108" s="26" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="J108" s="27"/>
     </row>
     <row r="109" spans="2:12" s="8" customFormat="1">
       <c r="B109" s="7"/>
       <c r="J109" s="7" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="2:12" s="8" customFormat="1">
@@ -9235,116 +8080,116 @@
     <row r="118" spans="2:10" s="8" customFormat="1">
       <c r="B118" s="7"/>
       <c r="I118" s="26" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="J118" s="27"/>
     </row>
     <row r="119" spans="2:10" s="8" customFormat="1">
       <c r="J119" s="7" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="2:10" s="8" customFormat="1">
       <c r="J120" s="7" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="J121" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="2:10" s="5" customFormat="1">
       <c r="B128" s="6" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="J131" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="J132" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="J134" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="K134" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="J136" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="K136" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="2:11">
       <c r="J138" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="J139" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="2:11" s="2" customFormat="1">
       <c r="B143" s="2" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="2:11" s="23" customFormat="1"/>
     <row r="145" spans="2:9" s="23" customFormat="1">
       <c r="B145" s="23" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="2:9" s="23" customFormat="1">
       <c r="B146" s="23" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="2:9">
       <c r="B147" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="2:9">
       <c r="B149" s="26" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="C149" s="27"/>
       <c r="E149" s="26" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="F149" s="27"/>
       <c r="H149" s="26" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="I149" s="27"/>
     </row>
     <row r="155" spans="2:9">
       <c r="B155" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="C155">
         <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="F155">
         <v>80</v>
       </c>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="I155">
         <v>800</v>
@@ -9352,19 +8197,19 @@
     </row>
     <row r="156" spans="2:9">
       <c r="B156" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="F156">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="I156">
         <v>80</v>
@@ -9372,27 +8217,27 @@
     </row>
     <row r="158" spans="2:9" s="5" customFormat="1">
       <c r="B158" s="6" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="2:9">
       <c r="B160" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161" spans="2:11">
       <c r="B161" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="2:11">
       <c r="B162" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="2:11">
       <c r="B163" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="2:11">
@@ -9400,7 +8245,7 @@
     </row>
     <row r="165" spans="2:11" s="9" customFormat="1">
       <c r="B165" s="9" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -9408,7 +8253,7 @@
     </row>
     <row r="167" spans="2:11">
       <c r="B167" s="7" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -9460,384 +8305,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6E7740-CB68-400E-883A-0222D2EF0D17}">
-  <dimension ref="A2:M101"/>
+  <dimension ref="B2:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="2:10" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="11" customFormat="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="11" customFormat="1">
       <c r="B5" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1">
-      <c r="B9" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="2" customFormat="1">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1">
+      <c r="B12" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="I15" s="21">
+        <v>0.67291666666666661</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="I20" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="I21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="I22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="40" spans="2:7">
+      <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="18"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="2:9" s="12" customFormat="1">
+      <c r="B71" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" s="14" customFormat="1">
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" s="14" customFormat="1">
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" s="14" customFormat="1"/>
+    <row r="76" spans="2:9" s="2" customFormat="1">
+      <c r="B76" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="H78" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="H79" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="H80" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1">
-      <c r="A19"/>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="C36" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="D38" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="C41" s="10" t="s">
+      <c r="I80" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="C64" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="C65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H67" t="s">
-        <v>39</v>
-      </c>
-      <c r="M67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="C71" s="13"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="C77" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="C78" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" t="s">
-        <v>56</v>
-      </c>
-      <c r="H78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="C80" s="13"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="C83" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="14" customFormat="1"/>
-    <row r="86" spans="1:9" s="14" customFormat="1">
-      <c r="A86" s="14">
-        <v>1</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="14" customFormat="1"/>
-    <row r="88" spans="1:9" s="4" customFormat="1">
-      <c r="A88"/>
-      <c r="C88" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="2" customFormat="1">
-      <c r="B93" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="H95" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="H96" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="8:9">
-      <c r="H97" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I97" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="8:9">
-      <c r="H98" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I98" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="8:9">
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="8:9">
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="8:9">
-      <c r="H101" s="15"/>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9849,259 +8592,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F474978-6D0D-461E-B923-6BDFC0159F20}">
-  <dimension ref="A2:K113"/>
+  <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:2" s="1" customFormat="1">
+    <row r="2" spans="2:4" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" s="11" customFormat="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="11" customFormat="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" s="12" customFormat="1">
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="2" customFormat="1">
+      <c r="B9" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" s="2" customFormat="1">
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1">
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="4" customFormat="1">
-      <c r="A29"/>
-      <c r="C29" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="D32" s="17"/>
-    </row>
-    <row r="59" spans="1:3" s="4" customFormat="1">
-      <c r="A59"/>
-      <c r="C59" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="C62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="C63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="C64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="10:10">
-      <c r="J68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="10:11">
-      <c r="J81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="10:11">
-      <c r="J93" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="10:11">
-      <c r="K94" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="10:11">
-      <c r="K95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="10:11">
-      <c r="J96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="K97" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="K98" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="J99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="J101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="J103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" s="2" customFormat="1">
-      <c r="B105" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="H107" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11">
-      <c r="H108" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="H109" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I109" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="H110" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I110" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="H111" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I111" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="H112" s="15"/>
-    </row>
-    <row r="113" spans="8:8">
-      <c r="H113" s="15"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10">
+      <c r="I58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10">
+      <c r="J59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10">
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10">
+      <c r="I61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10">
+      <c r="J62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10">
+      <c r="J63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10">
+      <c r="I64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="I66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="I69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="2" customFormat="1">
+      <c r="B71" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="H73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="H74" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="H75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="H79" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/2.checkUnity/Cookie仕様書.xlsx
+++ b/2.checkUnity/Cookie仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\github\GameEngine2\2.checkUnity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BC6BD2-2715-4E2A-8632-1C9FF1796A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8990771C-CC4D-44CE-8183-A48F09DBFA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6744" yWindow="0" windowWidth="16200" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.PushCookie" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="171">
   <si>
     <t>コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -239,29 +239,6 @@
     <t>画面をクリック</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・３D格ゲーで自機はクッキー</t>
-    <rPh sb="3" eb="4">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・敵は何でもいい。</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1895,6 +1872,19 @@
   </si>
   <si>
     <t>クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自機は3Dモデル敵はクッキー</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5759,22 +5749,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50939</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>39509</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>661748</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175651</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
+        <xdr:cNvPr id="35" name="図 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B93EED-57D0-4DE5-9E11-F3D4B61E6FBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCC128A-2776-46C0-BD87-8B274CEFA29B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5783,7 +5773,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5796,128 +5786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="721499" y="9183509"/>
-          <a:ext cx="4634169" cy="2840851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>501015</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="爆発: 14 pt 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA822A7-F2E4-4602-8C35-56978C66ED46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2198370" y="9271635"/>
-          <a:ext cx="1655445" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="irregularSeal2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>バトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>55246</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>158022</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725751D9-9E43-420E-A964-B43BC2D84BF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="725806" y="3253740"/>
-          <a:ext cx="4644389" cy="2847882"/>
+          <a:off x="685800" y="9654540"/>
+          <a:ext cx="4854331" cy="2727960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5929,22 +5799,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>99976</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>191432</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168031</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
+        <xdr:cNvPr id="33" name="図 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB768EF-8EE5-4FDC-99C6-22522C043DF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A859A382-303B-46C3-9ACF-CD8A30646A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5953,7 +5823,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5966,8 +5836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="722910" y="6272176"/>
-          <a:ext cx="4637760" cy="2834656"/>
+          <a:off x="678180" y="6697980"/>
+          <a:ext cx="4854331" cy="2727960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5979,15 +5849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>211455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>64008</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>27432</xdr:rowOff>
+      <xdr:colOff>48768</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>210312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6002,7 +5872,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1798320" y="8029575"/>
+          <a:off x="1783080" y="11184255"/>
           <a:ext cx="947928" cy="227457"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -6038,16 +5908,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>207644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>178308</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>56006</xdr:rowOff>
+      <xdr:colOff>414528</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6062,666 +5932,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3253740" y="8010524"/>
+          <a:off x="3489960" y="11180444"/>
           <a:ext cx="947928" cy="275082"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>129539</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7A1FB4-9016-441B-9925-1BAFD7DD4CBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781050" y="11433810"/>
-          <a:ext cx="1360169" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Attack!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B300AA91-8F2C-4528-BF15-E63D5C421D3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="746760" y="8496300"/>
-          <a:ext cx="1360169" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Attack!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="楕円 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F69094-FEB6-4A1D-AE06-B2A8E351A1A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3952875" y="8496300"/>
-          <a:ext cx="1360169" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Push!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>337185</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>356234</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="楕円 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6538110-1658-4A38-9667-CBB86FDCFD8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3689985" y="5511165"/>
-          <a:ext cx="1360169" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Push!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>207645</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243839</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="楕円 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A43A8D-C19D-4DB4-A5A6-D144238CB6AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="895350" y="5465445"/>
-          <a:ext cx="1360169" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Attack!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>643889</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="楕円 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4956E38-8E45-46FF-9883-9473B96210EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3977640" y="11433810"/>
-          <a:ext cx="1360169" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>Push!</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>179069</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>140969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="楕円 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6060DC6-2C34-4423-A7E9-A883B1DE9DFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="880110" y="3379469"/>
-          <a:ext cx="209550" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>443865</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>653415</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="楕円 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53D746E-E789-48CD-BDB5-4ECE995D62EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1784985" y="3400424"/>
-          <a:ext cx="209550" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>186689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>148589</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA9792C-3349-4D5D-A077-35C3C53C6F02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1156335" y="3387089"/>
-          <a:ext cx="209550" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>194309</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156209</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="楕円 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91D9BD3-6BFE-421E-9CC3-770B7F3DE180}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1463040" y="3394709"/>
-          <a:ext cx="194310" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6754,13 +5970,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6817,13 +6033,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>569595</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>207645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>405765</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6883,7 +6099,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -6938,13 +6154,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7000,61 +6216,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11429</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>5622</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB07D16-FBE9-43AC-8F38-D7E4FC122B05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="6987540"/>
-          <a:ext cx="4644389" cy="2847882"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4610100" cy="781111"/>
@@ -7123,13 +6289,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>488633</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7179,13 +6345,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>158116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7232,13 +6398,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350521</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7287,13 +6453,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7334,6 +6500,226 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190891</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0955072D-5504-4B21-9084-C7E9C216A992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="3009900"/>
+          <a:ext cx="4854331" cy="2727960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>7916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155282</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134BA65B-EAC0-4838-A693-CA975A704DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693420" y="12580916"/>
+          <a:ext cx="4826342" cy="2697184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="爆発: 14 pt 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA822A7-F2E4-4602-8C35-56978C66ED46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2198370" y="12860655"/>
+          <a:ext cx="1655445" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>バトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>214951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4732BC-D5CB-4C80-BD55-49F41FBC3458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="15544801"/>
+          <a:ext cx="4869180" cy="2729550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7630,105 +7016,105 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="19" customFormat="1">
       <c r="B7" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="24" customFormat="1">
       <c r="B17" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="E24" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="E31" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="2:10" s="2" customFormat="1">
@@ -7738,7 +7124,7 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:10" s="2" customFormat="1">
@@ -7748,59 +7134,59 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="2" customFormat="1">
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="23" customFormat="1"/>
     <row r="46" spans="2:10" s="23" customFormat="1">
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:10" s="23" customFormat="1">
       <c r="J47" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:10" s="23" customFormat="1">
       <c r="J48" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:11" s="23" customFormat="1">
       <c r="J49" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:11" s="23" customFormat="1">
       <c r="J50" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:11" s="23" customFormat="1">
       <c r="J51" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:11" s="23" customFormat="1">
       <c r="J52" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="2:11" s="23" customFormat="1">
       <c r="J53" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="2:11" s="23" customFormat="1">
       <c r="J54" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="2:11" s="23" customFormat="1"/>
@@ -7810,49 +7196,49 @@
     <row r="59" spans="2:11" s="23" customFormat="1"/>
     <row r="60" spans="2:11" s="4" customFormat="1">
       <c r="B60" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="2:11">
       <c r="K63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="K64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="K65" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11">
       <c r="K68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="K69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="K70" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -7860,27 +7246,27 @@
     </row>
     <row r="72" spans="2:11">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11">
       <c r="K73" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="1"/>
       <c r="K74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="C75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D75">
         <v>1280</v>
@@ -7888,129 +7274,129 @@
     </row>
     <row r="76" spans="2:11">
       <c r="C76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D76">
         <v>720</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11">
       <c r="C77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E77" s="21">
         <v>0.67291666666666661</v>
       </c>
       <c r="K77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="K78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C79" s="1"/>
       <c r="K79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="C80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="2:12">
       <c r="C81" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="2:12">
       <c r="C82" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="2:12">
       <c r="C83" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="2:12">
       <c r="C84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="2:12">
       <c r="C85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="2:12" s="2" customFormat="1">
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="2:12">
       <c r="K89" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="2:12">
       <c r="L90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="2:12">
       <c r="L91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="2:12">
       <c r="L92" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="2:12">
       <c r="K94" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L94" s="1"/>
     </row>
     <row r="95" spans="2:12">
       <c r="L95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="2:12">
       <c r="L96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="2:12">
       <c r="L97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="2:12">
       <c r="L98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="2:12">
       <c r="L99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="2:12">
@@ -8028,7 +7414,7 @@
     </row>
     <row r="104" spans="2:12" s="5" customFormat="1">
       <c r="B104" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="2:12" s="8" customFormat="1">
@@ -8043,14 +7429,14 @@
     <row r="108" spans="2:12" s="8" customFormat="1">
       <c r="B108" s="7"/>
       <c r="I108" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J108" s="27"/>
     </row>
     <row r="109" spans="2:12" s="8" customFormat="1">
       <c r="B109" s="7"/>
       <c r="J109" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="2:12" s="8" customFormat="1">
@@ -8080,116 +7466,116 @@
     <row r="118" spans="2:10" s="8" customFormat="1">
       <c r="B118" s="7"/>
       <c r="I118" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J118" s="27"/>
     </row>
     <row r="119" spans="2:10" s="8" customFormat="1">
       <c r="J119" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="2:10" s="8" customFormat="1">
       <c r="J120" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="J121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="2:10" s="5" customFormat="1">
       <c r="B128" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="J131" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="J132" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="J134" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K134" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="J136" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K136" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="2:11">
       <c r="J138" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="J139" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="2:11" s="2" customFormat="1">
       <c r="B143" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="2:11" s="23" customFormat="1"/>
     <row r="145" spans="2:9" s="23" customFormat="1">
       <c r="B145" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="2:9" s="23" customFormat="1">
       <c r="B146" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="2:9">
       <c r="B147" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="2:9">
       <c r="B149" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C149" s="27"/>
       <c r="E149" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F149" s="27"/>
       <c r="H149" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I149" s="27"/>
     </row>
     <row r="155" spans="2:9">
       <c r="B155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C155">
         <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F155">
         <v>80</v>
       </c>
       <c r="H155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I155">
         <v>800</v>
@@ -8197,19 +7583,19 @@
     </row>
     <row r="156" spans="2:9">
       <c r="B156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F156">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I156">
         <v>80</v>
@@ -8217,27 +7603,27 @@
     </row>
     <row r="158" spans="2:9" s="5" customFormat="1">
       <c r="B158" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="2:9">
       <c r="B160" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="2:11">
       <c r="B161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" spans="2:11">
       <c r="B162" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="2:11">
       <c r="B163" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="2:11">
@@ -8245,7 +7631,7 @@
     </row>
     <row r="165" spans="2:11" s="9" customFormat="1">
       <c r="B165" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -8253,7 +7639,7 @@
     </row>
     <row r="167" spans="2:11">
       <c r="B167" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -8320,17 +7706,17 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:10" s="11" customFormat="1">
       <c r="B5" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="2" customFormat="1">
@@ -8340,7 +7726,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1">
@@ -8354,7 +7740,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -8364,7 +7750,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="I16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J16">
         <v>1280</v>
@@ -8372,7 +7758,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="I17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J17">
         <v>720</v>
@@ -8380,22 +7766,22 @@
     </row>
     <row r="18" spans="2:10">
       <c r="I18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="I20" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="I21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="I22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -8423,7 +7809,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -8507,7 +7893,7 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C66" s="18"/>
     </row>
@@ -8519,7 +7905,7 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -8527,17 +7913,17 @@
     </row>
     <row r="71" spans="2:9" s="12" customFormat="1">
       <c r="B71" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="2:9" s="14" customFormat="1">
       <c r="B73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="2:9" s="14" customFormat="1">
       <c r="B74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="2:9" s="14" customFormat="1"/>
@@ -8559,7 +7945,7 @@
         <v>24</v>
       </c>
       <c r="I79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -8592,10 +7978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F474978-6D0D-461E-B923-6BDFC0159F20}">
-  <dimension ref="B2:J79"/>
+  <dimension ref="B2:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8607,7 +7993,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="11" customFormat="1">
@@ -8617,44 +8003,43 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="2" customFormat="1">
       <c r="B9" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="2:2">
@@ -8662,118 +8047,113 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="44" spans="10:10">
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="K58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="K59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="K71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" s="2" customFormat="1">
+      <c r="B83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="H85" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="9:9">
-      <c r="I45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="9:10">
-      <c r="I58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="9:10">
-      <c r="J59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="9:10">
-      <c r="J60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="9:10">
-      <c r="I61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="9:10">
-      <c r="J62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="9:10">
-      <c r="J63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="9:10">
-      <c r="I64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="I66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="I68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="I69" t="s">
+    <row r="86" spans="2:9">
+      <c r="H86" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="2:9" s="2" customFormat="1">
-      <c r="B71" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="H73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" t="s">
+    <row r="87" spans="2:9">
+      <c r="H87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
-      <c r="H74" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="H75" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76">
+    <row r="88" spans="2:9">
+      <c r="B88">
         <v>3</v>
       </c>
-      <c r="C76">
+      <c r="C88">
         <v>1</v>
       </c>
-      <c r="E76">
+      <c r="E88">
         <v>2</v>
       </c>
-      <c r="F76">
+      <c r="F88">
         <v>3</v>
       </c>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="H79" s="15"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="H91" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
